--- a/harmonize/data/raw/UNFCCC_Annex1/Time Series - GHG total without LULUCF, in kt CO₂ equivalent.xlsx
+++ b/harmonize/data/raw/UNFCCC_Annex1/Time Series - GHG total without LULUCF, in kt CO₂ equivalent.xlsx
@@ -231,8 +231,9 @@
     <col min="30" max="30" width="23.40" customWidth="1"/>
     <col min="31" max="31" width="23.40" customWidth="1"/>
     <col min="32" max="32" width="23.40" customWidth="1"/>
-    <col min="33" max="33" width="33.80" customWidth="1"/>
-    <col min="34" max="34" width="52.00" customWidth="1"/>
+    <col min="33" max="33" width="23.40" customWidth="1"/>
+    <col min="34" max="34" width="33.80" customWidth="1"/>
+    <col min="35" max="35" width="52.00" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,12 +405,17 @@
           <t>2019</t>
         </is>
       </c>
-      <c t="inlineStr" r="AG3" s="2">
-        <is>
-          <t xml:space="preserve">Last Inventory Year (2020)</t>
+      <c r="AG3" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c t="inlineStr" r="AH3" s="2">
+        <is>
+          <t xml:space="preserve">Last Inventory Year (2021)</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AI3" s="2">
         <is>
           <t xml:space="preserve">Change from base year to latest reported year</t>
         </is>
@@ -517,8 +523,13 @@
       <c t="n" r="AG4" s="64">
         <v>528149.4563996168</v>
       </c>
-      <c r="AH4" s="60">
-        <v>0.2408818004334295</v>
+      <c t="inlineStr" r="AH4" s="52">
+        <is>
+          <t xml:space="preserve">—</t>
+        </is>
+      </c>
+      <c r="AI4" s="60">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -528,103 +539,106 @@
         </is>
       </c>
       <c t="n" r="B5" s="64">
-        <v>78423.2207298205</v>
+        <v>79047.23175509914</v>
       </c>
       <c t="n" r="C5" s="64">
-        <v>78423.2207298205</v>
+        <v>79047.23175509914</v>
       </c>
       <c t="n" r="D5" s="64">
-        <v>82095.38649411147</v>
+        <v>82711.15641358819</v>
       </c>
       <c t="n" r="E5" s="64">
-        <v>75464.12166419617</v>
+        <v>76142.80906638922</v>
       </c>
       <c t="n" r="F5" s="64">
-        <v>75806.34587896381</v>
+        <v>76517.86401770973</v>
       </c>
       <c t="n" r="G5" s="64">
-        <v>76039.4717350331</v>
+        <v>76725.96656086227</v>
       </c>
       <c t="n" r="H5" s="64">
-        <v>79283.43014316553</v>
+        <v>79953.23792257362</v>
       </c>
       <c t="n" r="I5" s="64">
-        <v>82482.78204653913</v>
+        <v>83112.92719764508</v>
       </c>
       <c t="n" r="J5" s="64">
-        <v>82134.09310052542</v>
+        <v>82719.62708802664</v>
       </c>
       <c t="n" r="K5" s="64">
-        <v>81452.38067111453</v>
+        <v>82012.9004003456</v>
       </c>
       <c t="n" r="L5" s="64">
-        <v>79922.24450388405</v>
+        <v>80455.150260117</v>
       </c>
       <c t="n" r="M5" s="64">
-        <v>80085.02773403918</v>
+        <v>80619.36185834053</v>
       </c>
       <c t="n" r="N5" s="64">
-        <v>83989.23969561451</v>
+        <v>84514.04728892019</v>
       </c>
       <c t="n" r="O5" s="64">
-        <v>85747.07366848606</v>
+        <v>86267.53846790726</v>
       </c>
       <c t="n" r="P5" s="64">
-        <v>91209.6199313187</v>
+        <v>91636.3033581774</v>
       </c>
       <c t="n" r="Q5" s="64">
-        <v>90856.23561415596</v>
+        <v>91427.89605187188</v>
       </c>
       <c t="n" r="R5" s="64">
-        <v>92029.49661626798</v>
+        <v>92588.57965423357</v>
       </c>
       <c t="n" r="S5" s="64">
-        <v>89606.9797936335</v>
+        <v>90158.66685301093</v>
       </c>
       <c t="n" r="T5" s="64">
-        <v>86841.36195900859</v>
+        <v>87377.95090821605</v>
       </c>
       <c t="n" r="U5" s="64">
-        <v>86259.02041725726</v>
+        <v>86770.8186737982</v>
       </c>
       <c t="n" r="V5" s="64">
-        <v>79584.52242825931</v>
+        <v>80137.03146328643</v>
       </c>
       <c t="n" r="W5" s="64">
-        <v>84150.2250540238</v>
+        <v>84693.29255807184</v>
       </c>
       <c t="n" r="X5" s="64">
-        <v>82007.45952725247</v>
+        <v>82505.75616884463</v>
       </c>
       <c t="n" r="Y5" s="64">
-        <v>79309.94082444398</v>
+        <v>79788.32471975341</v>
       </c>
       <c t="n" r="Z5" s="64">
-        <v>79772.01877155202</v>
+        <v>80228.51783170225</v>
       </c>
       <c t="n" r="AA5" s="64">
-        <v>76235.1517144253</v>
+        <v>76662.66178527422</v>
       </c>
       <c t="n" r="AB5" s="64">
-        <v>78486.74312769044</v>
+        <v>78884.46456252683</v>
       </c>
       <c t="n" r="AC5" s="64">
-        <v>79468.29680688151</v>
+        <v>79821.26396788514</v>
       </c>
       <c t="n" r="AD5" s="64">
-        <v>81792.15594866553</v>
+        <v>82132.49225618067</v>
       </c>
       <c t="n" r="AE5" s="64">
-        <v>78558.02691476303</v>
+        <v>78854.37492458885</v>
       </c>
       <c t="n" r="AF5" s="64">
-        <v>79740.73840556573</v>
+        <v>79994.13764006222</v>
       </c>
       <c t="n" r="AG5" s="64">
-        <v>73592.0165184385</v>
-      </c>
-      <c r="AH5" s="60">
-        <v>-0.06160425657632977</v>
+        <v>73910.84267876764</v>
+      </c>
+      <c t="n" r="AH5" s="64">
+        <v>77532.35117999221</v>
+      </c>
+      <c r="AI5" s="60">
+        <v>-0.019164245748671763</v>
       </c>
     </row>
     <row r="6">
@@ -634,103 +648,106 @@
         </is>
       </c>
       <c t="n" r="B6" s="64">
-        <v>145461.61071824637</v>
+        <v>145339.88567881266</v>
       </c>
       <c t="n" r="C6" s="64">
-        <v>145461.61071824637</v>
+        <v>145339.88567881266</v>
       </c>
       <c t="n" r="D6" s="64">
-        <v>140015.45440375668</v>
+        <v>139713.44329639475</v>
       </c>
       <c t="n" r="E6" s="64">
-        <v>126498.17957271497</v>
+        <v>126031.2170499305</v>
       </c>
       <c t="n" r="F6" s="64">
-        <v>112569.63371581266</v>
+        <v>112296.43352069883</v>
       </c>
       <c t="n" r="G6" s="64">
-        <v>96767.03736479164</v>
+        <v>96343.44811706396</v>
       </c>
       <c t="n" r="H6" s="64">
-        <v>88354.30963050835</v>
+        <v>87955.98688507339</v>
       </c>
       <c t="n" r="I6" s="64">
-        <v>89110.9036364121</v>
+        <v>88760.16151727692</v>
       </c>
       <c t="n" r="J6" s="64">
-        <v>89303.56923341284</v>
+        <v>89022.0973047221</v>
       </c>
       <c t="n" r="K6" s="64">
-        <v>90561.88640346899</v>
+        <v>87757.92801104223</v>
       </c>
       <c t="n" r="L6" s="64">
-        <v>84637.04310747227</v>
+        <v>84261.44507342803</v>
       </c>
       <c t="n" r="M6" s="64">
-        <v>81363.78159272968</v>
+        <v>81145.92132134947</v>
       </c>
       <c t="n" r="N6" s="64">
-        <v>80011.30737734782</v>
+        <v>79825.85800789742</v>
       </c>
       <c t="n" r="O6" s="64">
-        <v>79299.16314354769</v>
+        <v>79125.2757684391</v>
       </c>
       <c t="n" r="P6" s="64">
-        <v>80982.78094229277</v>
+        <v>80871.07543309513</v>
       </c>
       <c t="n" r="Q6" s="64">
-        <v>84678.72879788715</v>
+        <v>84545.80115319921</v>
       </c>
       <c t="n" r="R6" s="64">
-        <v>86601.46501549076</v>
+        <v>86538.40302063886</v>
       </c>
       <c t="n" r="S6" s="64">
-        <v>89915.23534569741</v>
+        <v>89856.61831697414</v>
       </c>
       <c t="n" r="T6" s="64">
-        <v>88242.40988209206</v>
+        <v>88250.97257545199</v>
       </c>
       <c t="n" r="U6" s="64">
-        <v>91663.27830032072</v>
+        <v>91672.81971397626</v>
       </c>
       <c t="n" r="V6" s="64">
-        <v>89636.7836986406</v>
+        <v>89716.10567659838</v>
       </c>
       <c t="n" r="W6" s="64">
-        <v>91791.6360604258</v>
+        <v>91884.26870265986</v>
       </c>
       <c t="n" r="X6" s="64">
-        <v>91198.81572711388</v>
+        <v>91314.46779483317</v>
       </c>
       <c t="n" r="Y6" s="64">
-        <v>92258.7341187362</v>
+        <v>92432.60746039405</v>
       </c>
       <c t="n" r="Z6" s="64">
-        <v>94304.91378546784</v>
+        <v>94456.41080129471</v>
       </c>
       <c t="n" r="AA6" s="64">
-        <v>93264.1218798105</v>
+        <v>93371.44420697856</v>
       </c>
       <c t="n" r="AB6" s="64">
-        <v>88139.12694269359</v>
+        <v>88307.45565719811</v>
       </c>
       <c t="n" r="AC6" s="64">
-        <v>87468.2254722455</v>
+        <v>87563.30417772169</v>
       </c>
       <c t="n" r="AD6" s="64">
-        <v>89069.33323453796</v>
+        <v>89247.59587564754</v>
       </c>
       <c t="n" r="AE6" s="64">
-        <v>92029.13777457186</v>
+        <v>92202.40644637794</v>
       </c>
       <c t="n" r="AF6" s="64">
-        <v>92183.17245088314</v>
+        <v>92291.63297924688</v>
       </c>
       <c t="n" r="AG6" s="64">
-        <v>88802.05819108376</v>
-      </c>
-      <c r="AH6" s="60">
-        <v>-0.3895155034197305</v>
+        <v>89940.27706290108</v>
+      </c>
+      <c t="n" r="AH6" s="64">
+        <v>91988.20169097857</v>
+      </c>
+      <c r="AI6" s="60">
+        <v>-0.3670821931547149</v>
       </c>
     </row>
     <row r="7">
@@ -740,103 +757,106 @@
         </is>
       </c>
       <c t="n" r="B7" s="64">
-        <v>145686.75703966242</v>
+        <v>145844.473820194</v>
       </c>
       <c t="n" r="C7" s="64">
-        <v>145686.75703966242</v>
+        <v>145844.473820194</v>
       </c>
       <c t="n" r="D7" s="64">
-        <v>148406.62074129083</v>
+        <v>148579.58128529278</v>
       </c>
       <c t="n" r="E7" s="64">
-        <v>148007.1942615125</v>
+        <v>148077.74505996789</v>
       </c>
       <c t="n" r="F7" s="64">
-        <v>146865.8367210812</v>
+        <v>146896.9331755878</v>
       </c>
       <c t="n" r="G7" s="64">
-        <v>151469.47524052113</v>
+        <v>151445.44604443366</v>
       </c>
       <c t="n" r="H7" s="64">
-        <v>153593.38357676018</v>
+        <v>153579.8245035352</v>
       </c>
       <c t="n" r="I7" s="64">
-        <v>157305.32749383795</v>
+        <v>157227.9539464378</v>
       </c>
       <c t="n" r="J7" s="64">
-        <v>148839.892655988</v>
+        <v>148820.67333679608</v>
       </c>
       <c t="n" r="K7" s="64">
-        <v>154012.68257131992</v>
+        <v>154012.88502641328</v>
       </c>
       <c t="n" r="L7" s="64">
-        <v>147781.81559887997</v>
+        <v>147732.8211358519</v>
       </c>
       <c t="n" r="M7" s="64">
-        <v>148879.16110177521</v>
+        <v>148877.32820150282</v>
       </c>
       <c t="n" r="N7" s="64">
-        <v>147320.47066880405</v>
+        <v>147319.07685971318</v>
       </c>
       <c t="n" r="O7" s="64">
-        <v>147403.72746582955</v>
+        <v>147415.07177546914</v>
       </c>
       <c t="n" r="P7" s="64">
-        <v>147701.43686999902</v>
+        <v>147731.48753442438</v>
       </c>
       <c t="n" r="Q7" s="64">
-        <v>148537.134252266</v>
+        <v>148523.92355261656</v>
       </c>
       <c t="n" r="R7" s="64">
-        <v>145549.73308678664</v>
+        <v>145418.34637329503</v>
       </c>
       <c t="n" r="S7" s="64">
-        <v>142712.58086020022</v>
+        <v>142715.6018393219</v>
       </c>
       <c t="n" r="T7" s="64">
-        <v>139072.47034617735</v>
+        <v>139090.79081562592</v>
       </c>
       <c t="n" r="U7" s="64">
-        <v>138989.5682797318</v>
+        <v>139030.90695833796</v>
       </c>
       <c t="n" r="V7" s="64">
-        <v>126354.10830917911</v>
+        <v>126438.51959281742</v>
       </c>
       <c t="n" r="W7" s="64">
-        <v>133645.76684730104</v>
+        <v>133644.29712840557</v>
       </c>
       <c t="n" r="X7" s="64">
-        <v>123133.6903099257</v>
+        <v>123192.99131418762</v>
       </c>
       <c t="n" r="Y7" s="64">
-        <v>120361.60433786176</v>
+        <v>120443.61327065967</v>
       </c>
       <c t="n" r="Z7" s="64">
-        <v>120458.31980587622</v>
+        <v>120523.71547936212</v>
       </c>
       <c t="n" r="AA7" s="64">
-        <v>114768.43621690516</v>
+        <v>114878.84670329044</v>
       </c>
       <c t="n" r="AB7" s="64">
-        <v>118955.4663325147</v>
+        <v>118990.38047983403</v>
       </c>
       <c t="n" r="AC7" s="64">
-        <v>117417.88063812192</v>
+        <v>117419.56561282562</v>
       </c>
       <c t="n" r="AD7" s="64">
-        <v>117097.87811976178</v>
+        <v>116909.23634644451</v>
       </c>
       <c t="n" r="AE7" s="64">
-        <v>117594.03950180835</v>
+        <v>117584.91580492558</v>
       </c>
       <c t="n" r="AF7" s="64">
-        <v>116448.18489374363</v>
+        <v>116463.71062417114</v>
       </c>
       <c t="n" r="AG7" s="64">
-        <v>106433.25829193817</v>
-      </c>
-      <c r="AH7" s="60">
-        <v>-0.269437658887813</v>
+        <v>107272.65406185883</v>
+      </c>
+      <c t="n" r="AH7" s="64">
+        <v>110951.73134654615</v>
+      </c>
+      <c r="AI7" s="60">
+        <v>-0.2392462433418338</v>
       </c>
     </row>
     <row r="8">
@@ -846,103 +866,106 @@
         </is>
       </c>
       <c t="n" r="B8" s="64">
-        <v>113147.01962373467</v>
+        <v>113622.2750246253</v>
       </c>
       <c t="n" r="C8" s="64">
-        <v>98356.81327045384</v>
+        <v>98910.3375100589</v>
       </c>
       <c t="n" r="D8" s="64">
-        <v>80200.0312201815</v>
+        <v>80843.21842252986</v>
       </c>
       <c t="n" r="E8" s="64">
-        <v>74601.94973316474</v>
+        <v>75325.92329870621</v>
       </c>
       <c t="n" r="F8" s="64">
-        <v>74018.32555548729</v>
+        <v>74663.95075905867</v>
       </c>
       <c t="n" r="G8" s="64">
-        <v>70137.9351544066</v>
+        <v>70605.26506365121</v>
       </c>
       <c t="n" r="H8" s="64">
-        <v>71677.01922707015</v>
+        <v>72168.35867276003</v>
       </c>
       <c t="n" r="I8" s="64">
-        <v>72110.03549711373</v>
+        <v>72615.15365025985</v>
       </c>
       <c t="n" r="J8" s="64">
-        <v>68918.22786045632</v>
+        <v>69401.56211892277</v>
       </c>
       <c t="n" r="K8" s="64">
-        <v>64862.57833704734</v>
+        <v>65356.79054359385</v>
       </c>
       <c t="n" r="L8" s="64">
-        <v>57845.80965047249</v>
+        <v>58274.211871425934</v>
       </c>
       <c t="n" r="M8" s="64">
-        <v>56965.765699725365</v>
+        <v>57387.45875451909</v>
       </c>
       <c t="n" r="N8" s="64">
-        <v>59940.02998771157</v>
+        <v>60267.1822271732</v>
       </c>
       <c t="n" r="O8" s="64">
-        <v>57346.44553710792</v>
+        <v>57719.87905456927</v>
       </c>
       <c t="n" r="P8" s="64">
-        <v>62198.197545147115</v>
+        <v>62658.86997624506</v>
       </c>
       <c t="n" r="Q8" s="64">
-        <v>61426.281166477114</v>
+        <v>61760.57555349222</v>
       </c>
       <c t="n" r="R8" s="64">
-        <v>62067.18546359091</v>
+        <v>62364.32037543168</v>
       </c>
       <c t="n" r="S8" s="64">
-        <v>62777.42855690674</v>
+        <v>63088.40137541151</v>
       </c>
       <c t="n" r="T8" s="64">
-        <v>66754.51807126211</v>
+        <v>67006.24427635368</v>
       </c>
       <c t="n" r="U8" s="64">
-        <v>65501.87389590241</v>
+        <v>65624.97530091355</v>
       </c>
       <c t="n" r="V8" s="64">
-        <v>56638.44881358575</v>
+        <v>56758.59661299674</v>
       </c>
       <c t="n" r="W8" s="64">
-        <v>59321.21479633274</v>
+        <v>59383.16583431907</v>
       </c>
       <c t="n" r="X8" s="64">
-        <v>64625.47703626925</v>
+        <v>64728.48351652055</v>
       </c>
       <c t="n" r="Y8" s="64">
-        <v>59659.34123799261</v>
+        <v>59675.71500561144</v>
       </c>
       <c t="n" r="Z8" s="64">
-        <v>55591.15341913415</v>
+        <v>54453.69937162588</v>
       </c>
       <c t="n" r="AA8" s="64">
-        <v>58876.25746949259</v>
+        <v>57529.0228739082</v>
       </c>
       <c t="n" r="AB8" s="64">
-        <v>62269.03207159723</v>
+        <v>60421.39550114062</v>
       </c>
       <c t="n" r="AC8" s="64">
-        <v>60140.86230657326</v>
+        <v>57773.56323431382</v>
       </c>
       <c t="n" r="AD8" s="64">
-        <v>63332.78323497174</v>
+        <v>59715.84067230852</v>
       </c>
       <c t="n" r="AE8" s="64">
-        <v>60309.806428884134</v>
+        <v>55361.84065932889</v>
       </c>
       <c t="n" r="AF8" s="64">
-        <v>59472.62319426897</v>
+        <v>53942.11638877827</v>
       </c>
       <c t="n" r="AG8" s="64">
-        <v>49185.62315314514</v>
-      </c>
-      <c r="AH8" s="60">
-        <v>-0.5652945758826903</v>
+        <v>47984.61534203589</v>
+      </c>
+      <c t="n" r="AH8" s="64">
+        <v>53917.265084100014</v>
+      </c>
+      <c r="AI8" s="60">
+        <v>-0.5254692350385121</v>
       </c>
     </row>
     <row r="9">
@@ -952,103 +975,106 @@
         </is>
       </c>
       <c t="n" r="B9" s="64">
-        <v>594722.2434196356</v>
+        <v>588602.8238444284</v>
       </c>
       <c t="n" r="C9" s="64">
-        <v>594722.2434196356</v>
+        <v>588602.8238444284</v>
       </c>
       <c t="n" r="D9" s="64">
-        <v>587905.7938846506</v>
+        <v>582031.2216702895</v>
       </c>
       <c t="n" r="E9" s="64">
-        <v>605290.2488198037</v>
+        <v>599242.6615929295</v>
       </c>
       <c t="n" r="F9" s="64">
-        <v>607681.0769136726</v>
+        <v>601743.6544355397</v>
       </c>
       <c t="n" r="G9" s="64">
-        <v>628145.8691936331</v>
+        <v>621934.1289437998</v>
       </c>
       <c t="n" r="H9" s="64">
-        <v>645455.2967763351</v>
+        <v>639070.2852522435</v>
       </c>
       <c t="n" r="I9" s="64">
-        <v>666701.9102303656</v>
+        <v>660767.8029939805</v>
       </c>
       <c t="n" r="J9" s="64">
-        <v>682298.9984328105</v>
+        <v>676394.2243352553</v>
       </c>
       <c t="n" r="K9" s="64">
-        <v>688613.9310248581</v>
+        <v>682434.8298660473</v>
       </c>
       <c t="n" r="L9" s="64">
-        <v>701758.7117289732</v>
+        <v>694516.9382513708</v>
       </c>
       <c t="n" r="M9" s="64">
-        <v>726987.2829932959</v>
+        <v>719463.7136865278</v>
       </c>
       <c t="n" r="N9" s="64">
-        <v>718320.0431526634</v>
+        <v>710171.8398389998</v>
       </c>
       <c t="n" r="O9" s="64">
-        <v>724281.1295551856</v>
+        <v>715489.7654960621</v>
       </c>
       <c t="n" r="P9" s="64">
-        <v>743286.8543848472</v>
+        <v>734140.5465202886</v>
       </c>
       <c t="n" r="Q9" s="64">
-        <v>745194.0474627834</v>
+        <v>736725.4567196602</v>
       </c>
       <c t="n" r="R9" s="64">
-        <v>741182.8432551544</v>
+        <v>732220.0929937717</v>
       </c>
       <c t="n" r="S9" s="64">
-        <v>734586.9900272427</v>
+        <v>725289.2228794754</v>
       </c>
       <c t="n" r="T9" s="64">
-        <v>756833.2581055686</v>
+        <v>748070.0908710178</v>
       </c>
       <c t="n" r="U9" s="64">
-        <v>739063.1516489412</v>
+        <v>730801.2355870068</v>
       </c>
       <c t="n" r="V9" s="64">
-        <v>697734.9449327231</v>
+        <v>689549.3184216195</v>
       </c>
       <c t="n" r="W9" s="64">
-        <v>709654.0606791667</v>
+        <v>701867.5474300764</v>
       </c>
       <c t="n" r="X9" s="64">
-        <v>720820.9307417693</v>
+        <v>711312.8231873122</v>
       </c>
       <c t="n" r="Y9" s="64">
-        <v>725587.1019419946</v>
+        <v>716370.500321952</v>
       </c>
       <c t="n" r="Z9" s="64">
-        <v>732162.3016108613</v>
+        <v>723096.3044409424</v>
       </c>
       <c t="n" r="AA9" s="64">
-        <v>729599.7834404231</v>
+        <v>720195.4590728362</v>
       </c>
       <c t="n" r="AB9" s="64">
-        <v>732536.8724060024</v>
+        <v>722918.2679779263</v>
       </c>
       <c t="n" r="AC9" s="64">
-        <v>715095.8573520563</v>
+        <v>704927.8674717193</v>
       </c>
       <c t="n" r="AD9" s="64">
-        <v>725015.646612367</v>
+        <v>712233.8013686698</v>
       </c>
       <c t="n" r="AE9" s="64">
-        <v>740006.2695634275</v>
+        <v>724615.7797806065</v>
       </c>
       <c t="n" r="AF9" s="64">
-        <v>738283.4460687499</v>
+        <v>723679.2904266173</v>
       </c>
       <c t="n" r="AG9" s="64">
-        <v>672354.0219600041</v>
-      </c>
-      <c r="AH9" s="60">
-        <v>0.13053451321071846</v>
+        <v>658788.3896036918</v>
+      </c>
+      <c t="n" r="AH9" s="64">
+        <v>670428.3045378723</v>
+      </c>
+      <c r="AI9" s="60">
+        <v>0.13901645962043654</v>
       </c>
     </row>
     <row r="10">
@@ -1058,103 +1084,106 @@
         </is>
       </c>
       <c t="n" r="B10" s="64">
-        <v>31416.284658431883</v>
+        <v>31454.182049505653</v>
       </c>
       <c t="n" r="C10" s="64">
-        <v>31416.284658431883</v>
+        <v>31454.182049505653</v>
       </c>
       <c t="n" r="D10" s="64">
-        <v>24719.60351469125</v>
+        <v>24818.23437923001</v>
       </c>
       <c t="n" r="E10" s="64">
-        <v>22794.323192463333</v>
+        <v>22932.56658935529</v>
       </c>
       <c t="n" r="F10" s="64">
-        <v>22743.307363943273</v>
+        <v>22930.42294486198</v>
       </c>
       <c t="n" r="G10" s="64">
-        <v>21840.77034086764</v>
+        <v>22015.023672932824</v>
       </c>
       <c t="n" r="H10" s="64">
-        <v>22499.6505570476</v>
+        <v>22686.425014166427</v>
       </c>
       <c t="n" r="I10" s="64">
-        <v>22990.969585120543</v>
+        <v>23180.048761195234</v>
       </c>
       <c t="n" r="J10" s="64">
-        <v>24377.557331370936</v>
+        <v>24543.046493014237</v>
       </c>
       <c t="n" r="K10" s="64">
-        <v>24463.86524328731</v>
+        <v>24667.911249129458</v>
       </c>
       <c t="n" r="L10" s="64">
-        <v>25767.474821170643</v>
+        <v>25955.207997899826</v>
       </c>
       <c t="n" r="M10" s="64">
-        <v>25489.505531874427</v>
+        <v>25653.647263585688</v>
       </c>
       <c t="n" r="N10" s="64">
-        <v>26662.257903470552</v>
+        <v>26840.69089021763</v>
       </c>
       <c t="n" r="O10" s="64">
-        <v>27711.127629278573</v>
+        <v>27906.893556667008</v>
       </c>
       <c t="n" r="P10" s="64">
-        <v>29141.450028451207</v>
+        <v>29369.440381903965</v>
       </c>
       <c t="n" r="Q10" s="64">
-        <v>29171.045727779405</v>
+        <v>29386.445032258707</v>
       </c>
       <c t="n" r="R10" s="64">
-        <v>29663.35401515319</v>
+        <v>29876.440591733965</v>
       </c>
       <c t="n" r="S10" s="64">
-        <v>30044.166253993146</v>
+        <v>30283.881349786167</v>
       </c>
       <c t="n" r="T10" s="64">
-        <v>31495.40142208967</v>
+        <v>31720.87233461706</v>
       </c>
       <c t="n" r="U10" s="64">
-        <v>30583.1973771618</v>
+        <v>30767.53891798061</v>
       </c>
       <c t="n" r="V10" s="64">
-        <v>28313.855999130083</v>
+        <v>28577.637610645208</v>
       </c>
       <c t="n" r="W10" s="64">
-        <v>27931.287927367142</v>
+        <v>28171.061292020855</v>
       </c>
       <c t="n" r="X10" s="64">
-        <v>27645.379498062437</v>
+        <v>27868.670314587824</v>
       </c>
       <c t="n" r="Y10" s="64">
-        <v>25884.814056457883</v>
+        <v>26113.09800862379</v>
       </c>
       <c t="n" r="Z10" s="64">
-        <v>24611.917358010338</v>
+        <v>24890.09352259266</v>
       </c>
       <c t="n" r="AA10" s="64">
-        <v>23875.961830461474</v>
+        <v>24157.184763262558</v>
       </c>
       <c t="n" r="AB10" s="64">
-        <v>24349.08098540375</v>
+        <v>24611.048154647582</v>
       </c>
       <c t="n" r="AC10" s="64">
-        <v>24609.244209442746</v>
+        <v>24833.944313946373</v>
       </c>
       <c t="n" r="AD10" s="64">
-        <v>25479.045325005303</v>
+        <v>25709.30709607025</v>
       </c>
       <c t="n" r="AE10" s="64">
-        <v>24400.200625274098</v>
+        <v>24600.986811995004</v>
       </c>
       <c t="n" r="AF10" s="64">
-        <v>24622.298579905957</v>
+        <v>24799.385011949744</v>
       </c>
       <c t="n" r="AG10" s="64">
-        <v>23756.352085517425</v>
-      </c>
-      <c r="AH10" s="60">
-        <v>-0.24382044714057532</v>
+        <v>23906.81784857083</v>
+      </c>
+      <c t="n" r="AH10" s="64">
+        <v>24446.418231731226</v>
+      </c>
+      <c r="AI10" s="60">
+        <v>-0.22279275317809652</v>
       </c>
     </row>
     <row r="11">
@@ -1164,103 +1193,106 @@
         </is>
       </c>
       <c t="n" r="B11" s="64">
-        <v>5576.487955350355</v>
+        <v>5571.727811685488</v>
       </c>
       <c t="n" r="C11" s="64">
-        <v>5576.487955350355</v>
+        <v>5571.727811685488</v>
       </c>
       <c t="n" r="D11" s="64">
-        <v>6077.964150301298</v>
+        <v>6076.34944153024</v>
       </c>
       <c t="n" r="E11" s="64">
-        <v>6523.432483462731</v>
+        <v>6513.674564476511</v>
       </c>
       <c t="n" r="F11" s="64">
-        <v>6812.177621377251</v>
+        <v>6800.583923925365</v>
       </c>
       <c t="n" r="G11" s="64">
-        <v>7060.234171261289</v>
+        <v>7057.366490075754</v>
       </c>
       <c t="n" r="H11" s="64">
-        <v>6996.9437697606045</v>
+        <v>6972.183054918783</v>
       </c>
       <c t="n" r="I11" s="64">
-        <v>7341.989099498582</v>
+        <v>7345.028102482273</v>
       </c>
       <c t="n" r="J11" s="64">
-        <v>7430.125643440536</v>
+        <v>7439.032833295902</v>
       </c>
       <c t="n" r="K11" s="64">
-        <v>7758.970410142235</v>
+        <v>7754.896461701197</v>
       </c>
       <c t="n" r="L11" s="64">
-        <v>8026.002505200601</v>
+        <v>8032.289470936125</v>
       </c>
       <c t="n" r="M11" s="64">
-        <v>8296.676899752263</v>
+        <v>8306.443173193778</v>
       </c>
       <c t="n" r="N11" s="64">
-        <v>8242.104520774978</v>
+        <v>8247.747418949431</v>
       </c>
       <c t="n" r="O11" s="64">
-        <v>8468.067773727475</v>
+        <v>8482.312590852944</v>
       </c>
       <c t="n" r="P11" s="64">
-        <v>8861.241798195037</v>
+        <v>8874.123558494128</v>
       </c>
       <c t="n" r="Q11" s="64">
-        <v>9085.602280383164</v>
+        <v>9077.631146049474</v>
       </c>
       <c t="n" r="R11" s="64">
-        <v>9211.17772510439</v>
+        <v>9222.441576415213</v>
       </c>
       <c t="n" r="S11" s="64">
-        <v>9470.492510140624</v>
+        <v>9470.487555075542</v>
       </c>
       <c t="n" r="T11" s="64">
-        <v>9802.215253770353</v>
+        <v>9803.649522391086</v>
       </c>
       <c t="n" r="U11" s="64">
-        <v>10025.690423527209</v>
+        <v>10025.399885993887</v>
       </c>
       <c t="n" r="V11" s="64">
-        <v>9788.89866921532</v>
+        <v>9789.978547154731</v>
       </c>
       <c t="n" r="W11" s="64">
-        <v>9464.042852480534</v>
+        <v>9455.867353293164</v>
       </c>
       <c t="n" r="X11" s="64">
-        <v>9157.41750117094</v>
+        <v>9158.463176854966</v>
       </c>
       <c t="n" r="Y11" s="64">
-        <v>8629.840475730716</v>
+        <v>8624.684297646803</v>
       </c>
       <c t="n" r="Z11" s="64">
-        <v>7919.82177486279</v>
+        <v>7920.234979570166</v>
       </c>
       <c t="n" r="AA11" s="64">
-        <v>8292.64485625131</v>
+        <v>8294.915275673744</v>
       </c>
       <c t="n" r="AB11" s="64">
-        <v>8344.081731194003</v>
+        <v>8343.271572793527</v>
       </c>
       <c t="n" r="AC11" s="64">
-        <v>8799.31603291249</v>
+        <v>8790.122519397406</v>
       </c>
       <c t="n" r="AD11" s="64">
-        <v>8996.819558076584</v>
+        <v>8966.067431705209</v>
       </c>
       <c t="n" r="AE11" s="64">
-        <v>8857.801882286096</v>
+        <v>8821.195681516547</v>
       </c>
       <c t="n" r="AF11" s="64">
-        <v>8900.1151582937</v>
+        <v>8891.618752554376</v>
       </c>
       <c t="n" r="AG11" s="64">
-        <v>8871.573974564588</v>
-      </c>
-      <c r="AH11" s="60">
-        <v>0.5908891125735807</v>
+        <v>8502.85742775089</v>
+      </c>
+      <c t="n" r="AH11" s="64">
+        <v>8670.015238133425</v>
+      </c>
+      <c r="AI11" s="60">
+        <v>0.5560730048495823</v>
       </c>
     </row>
     <row r="12">
@@ -1270,103 +1302,106 @@
         </is>
       </c>
       <c t="n" r="B12" s="64">
-        <v>196955.24224988732</v>
+        <v>198775.27153182015</v>
       </c>
       <c t="n" r="C12" s="64">
-        <v>196955.24224988732</v>
+        <v>198775.27153182015</v>
       </c>
       <c t="n" r="D12" s="64">
-        <v>178725.4236498119</v>
+        <v>180859.66542842946</v>
       </c>
       <c t="n" r="E12" s="64">
-        <v>173319.61501489265</v>
+        <v>175034.84613820625</v>
       </c>
       <c t="n" r="F12" s="64">
-        <v>166101.38322537675</v>
+        <v>168323.66868175904</v>
       </c>
       <c t="n" r="G12" s="64">
-        <v>157398.16594730332</v>
+        <v>159410.6378902444</v>
       </c>
       <c t="n" r="H12" s="64">
-        <v>156320.8482169894</v>
+        <v>158371.95051666742</v>
       </c>
       <c t="n" r="I12" s="64">
-        <v>159433.59017096402</v>
+        <v>161709.65127607464</v>
       </c>
       <c t="n" r="J12" s="64">
-        <v>154987.13936020786</v>
+        <v>157200.3676524051</v>
       </c>
       <c t="n" r="K12" s="64">
-        <v>148909.78935382888</v>
+        <v>151034.59419537915</v>
       </c>
       <c t="n" r="L12" s="64">
-        <v>139213.2405985407</v>
+        <v>141062.00751523214</v>
       </c>
       <c t="n" r="M12" s="64">
-        <v>149594.36777133937</v>
+        <v>151139.20953375788</v>
       </c>
       <c t="n" r="N12" s="64">
-        <v>149698.63675670183</v>
+        <v>150760.15266118274</v>
       </c>
       <c t="n" r="O12" s="64">
-        <v>146096.99632478008</v>
+        <v>146965.74943071793</v>
       </c>
       <c t="n" r="P12" s="64">
-        <v>149239.9271930389</v>
+        <v>150152.89248229619</v>
       </c>
       <c t="n" r="Q12" s="64">
-        <v>150302.64216786262</v>
+        <v>151009.98867173088</v>
       </c>
       <c t="n" r="R12" s="64">
-        <v>148097.96039678826</v>
+        <v>148934.98799480693</v>
       </c>
       <c t="n" r="S12" s="64">
-        <v>149370.87806276462</v>
+        <v>150166.77315367752</v>
       </c>
       <c t="n" r="T12" s="64">
-        <v>151128.29881281534</v>
+        <v>151829.89117681424</v>
       </c>
       <c t="n" r="U12" s="64">
-        <v>146108.2356085087</v>
+        <v>146768.5864358062</v>
       </c>
       <c t="n" r="V12" s="64">
-        <v>136747.6802114483</v>
+        <v>137280.2936613009</v>
       </c>
       <c t="n" r="W12" s="64">
-        <v>139549.87446737627</v>
+        <v>140167.5717679914</v>
       </c>
       <c t="n" r="X12" s="64">
-        <v>138116.4850977647</v>
+        <v>138568.00191286142</v>
       </c>
       <c t="n" r="Y12" s="64">
-        <v>134176.04168400852</v>
+        <v>134610.18177386408</v>
       </c>
       <c t="n" r="Z12" s="64">
-        <v>128913.0266772765</v>
+        <v>129251.70674614262</v>
       </c>
       <c t="n" r="AA12" s="64">
-        <v>126728.25148794397</v>
+        <v>127080.04139212114</v>
       </c>
       <c t="n" r="AB12" s="64">
-        <v>128158.54173856508</v>
+        <v>128506.44901590094</v>
       </c>
       <c t="n" r="AC12" s="64">
-        <v>129495.19282998645</v>
+        <v>130106.9659852731</v>
       </c>
       <c t="n" r="AD12" s="64">
-        <v>130553.18394016166</v>
+        <v>130951.93561801888</v>
       </c>
       <c t="n" r="AE12" s="64">
-        <v>128733.42293916078</v>
+        <v>129180.05513198543</v>
       </c>
       <c t="n" r="AF12" s="64">
-        <v>122895.33379871433</v>
+        <v>123451.2605624349</v>
       </c>
       <c t="n" r="AG12" s="64">
-        <v>112788.5783053468</v>
-      </c>
-      <c r="AH12" s="60">
-        <v>-0.4273390389769565</v>
+        <v>113072.05225478217</v>
+      </c>
+      <c t="n" r="AH12" s="64">
+        <v>118381.69060542548</v>
+      </c>
+      <c r="AI12" s="60">
+        <v>-0.4044445785779001</v>
       </c>
     </row>
     <row r="13">
@@ -1376,103 +1411,106 @@
         </is>
       </c>
       <c t="n" r="B13" s="64">
-        <v>71429.97157280153</v>
+        <v>71820.93501527356</v>
       </c>
       <c t="n" r="C13" s="64">
-        <v>71429.97157280153</v>
+        <v>71820.93501527356</v>
       </c>
       <c t="n" r="D13" s="64">
-        <v>82054.15223034224</v>
+        <v>82432.99573874245</v>
       </c>
       <c t="n" r="E13" s="64">
-        <v>76040.81974972984</v>
+        <v>76517.5778514318</v>
       </c>
       <c t="n" r="F13" s="64">
-        <v>78197.6971118582</v>
+        <v>78670.86383663423</v>
       </c>
       <c t="n" r="G13" s="64">
-        <v>82105.13239719544</v>
+        <v>82598.77103403174</v>
       </c>
       <c t="n" r="H13" s="64">
-        <v>79174.86735143494</v>
+        <v>79748.72631546979</v>
       </c>
       <c t="n" r="I13" s="64">
-        <v>92340.45971047449</v>
+        <v>92928.68854622249</v>
       </c>
       <c t="n" r="J13" s="64">
-        <v>82916.56561158996</v>
+        <v>83411.40809840495</v>
       </c>
       <c t="n" r="K13" s="64">
-        <v>78885.85703167475</v>
+        <v>79455.93793904834</v>
       </c>
       <c t="n" r="L13" s="64">
-        <v>76380.86374095507</v>
+        <v>76824.89174172316</v>
       </c>
       <c t="n" r="M13" s="64">
-        <v>72100.87180353982</v>
+        <v>72662.4487868019</v>
       </c>
       <c t="n" r="N13" s="64">
-        <v>73820.46099980621</v>
+        <v>74398.1078605965</v>
       </c>
       <c t="n" r="O13" s="64">
-        <v>73239.91700115806</v>
+        <v>73871.1521321797</v>
       </c>
       <c t="n" r="P13" s="64">
-        <v>78316.44947344906</v>
+        <v>79006.62258895296</v>
       </c>
       <c t="n" r="Q13" s="64">
-        <v>72333.08439928363</v>
+        <v>73060.07431236225</v>
       </c>
       <c t="n" r="R13" s="64">
-        <v>67944.27005907193</v>
+        <v>68748.18197311817</v>
       </c>
       <c t="n" r="S13" s="64">
-        <v>75696.13962404725</v>
+        <v>76500.41365694268</v>
       </c>
       <c t="n" r="T13" s="64">
-        <v>71086.70316631239</v>
+        <v>71880.27446396118</v>
       </c>
       <c t="n" r="U13" s="64">
-        <v>67493.87666687125</v>
+        <v>68291.35120033311</v>
       </c>
       <c t="n" r="V13" s="64">
-        <v>64703.0876679258</v>
+        <v>65544.85635975409</v>
       </c>
       <c t="n" r="W13" s="64">
-        <v>65011.35825314795</v>
+        <v>65857.44769665289</v>
       </c>
       <c t="n" r="X13" s="64">
-        <v>59786.03799453047</v>
+        <v>60652.623848657735</v>
       </c>
       <c t="n" r="Y13" s="64">
-        <v>55194.77427598139</v>
+        <v>56058.80832539474</v>
       </c>
       <c t="n" r="Z13" s="64">
-        <v>56919.34994963152</v>
+        <v>57779.38536213797</v>
       </c>
       <c t="n" r="AA13" s="64">
-        <v>52740.3406490268</v>
+        <v>53608.89602296179</v>
       </c>
       <c t="n" r="AB13" s="64">
-        <v>50125.455657952734</v>
+        <v>50834.61940288591</v>
       </c>
       <c t="n" r="AC13" s="64">
-        <v>52158.39476114872</v>
+        <v>52906.15190295425</v>
       </c>
       <c t="n" r="AD13" s="64">
-        <v>50038.344036511815</v>
+        <v>50773.91404333319</v>
       </c>
       <c t="n" r="AE13" s="64">
-        <v>49963.804856947434</v>
+        <v>50726.02155748893</v>
       </c>
       <c t="n" r="AF13" s="64">
-        <v>46145.4285360454</v>
+        <v>46941.67101964576</v>
       </c>
       <c t="n" r="AG13" s="64">
-        <v>43457.97518516</v>
-      </c>
-      <c r="AH13" s="60">
-        <v>-0.39160027327089764</v>
+        <v>44483.800074443374</v>
+      </c>
+      <c t="n" r="AH13" s="64">
+        <v>45515.579085261976</v>
+      </c>
+      <c r="AI13" s="60">
+        <v>-0.3662630669514041</v>
       </c>
     </row>
     <row r="14">
@@ -1482,103 +1520,106 @@
         </is>
       </c>
       <c t="n" r="B14" s="64">
-        <v>40175.174742854084</v>
+        <v>40276.36254951319</v>
       </c>
       <c t="n" r="C14" s="64">
-        <v>40175.174742854084</v>
+        <v>40276.36254951319</v>
       </c>
       <c t="n" r="D14" s="64">
-        <v>37295.32423567461</v>
+        <v>37402.714561505185</v>
       </c>
       <c t="n" r="E14" s="64">
-        <v>27136.655568874623</v>
+        <v>27215.514696747752</v>
       </c>
       <c t="n" r="F14" s="64">
-        <v>21688.569986125618</v>
+        <v>21751.65311583289</v>
       </c>
       <c t="n" r="G14" s="64">
-        <v>22181.183306511823</v>
+        <v>22225.022733195656</v>
       </c>
       <c t="n" r="H14" s="64">
-        <v>20080.529411458592</v>
+        <v>20063.924469337355</v>
       </c>
       <c t="n" r="I14" s="64">
-        <v>21033.534197362198</v>
+        <v>21007.73786165955</v>
       </c>
       <c t="n" r="J14" s="64">
-        <v>20750.103746126086</v>
+        <v>20719.24744370987</v>
       </c>
       <c t="n" r="K14" s="64">
-        <v>18999.995572162537</v>
+        <v>18992.04106974136</v>
       </c>
       <c t="n" r="L14" s="64">
-        <v>17851.345185760976</v>
+        <v>17829.241245953766</v>
       </c>
       <c t="n" r="M14" s="64">
-        <v>17479.52225077779</v>
+        <v>17453.338863034118</v>
       </c>
       <c t="n" r="N14" s="64">
-        <v>17909.590707614883</v>
+        <v>17887.99989779964</v>
       </c>
       <c t="n" r="O14" s="64">
-        <v>17313.107400942765</v>
+        <v>17300.07967465906</v>
       </c>
       <c t="n" r="P14" s="64">
-        <v>19262.288499292015</v>
+        <v>19233.276642656703</v>
       </c>
       <c t="n" r="Q14" s="64">
-        <v>19390.535795136322</v>
+        <v>19362.260520516356</v>
       </c>
       <c t="n" r="R14" s="64">
-        <v>19157.484591905522</v>
+        <v>19140.62128468493</v>
       </c>
       <c t="n" r="S14" s="64">
-        <v>18501.969459351818</v>
+        <v>18490.0540243576</v>
       </c>
       <c t="n" r="T14" s="64">
-        <v>22105.76696815252</v>
+        <v>22046.44173780724</v>
       </c>
       <c t="n" r="U14" s="64">
-        <v>20050.264618188154</v>
+        <v>19941.842165167276</v>
       </c>
       <c t="n" r="V14" s="64">
-        <v>16570.90624836224</v>
+        <v>16508.258504986105</v>
       </c>
       <c t="n" r="W14" s="64">
-        <v>21180.80695780395</v>
+        <v>21111.59503899038</v>
       </c>
       <c t="n" r="X14" s="64">
-        <v>21134.141857099992</v>
+        <v>21079.725872828723</v>
       </c>
       <c t="n" r="Y14" s="64">
-        <v>20023.44772544509</v>
+        <v>19962.929177431117</v>
       </c>
       <c t="n" r="Z14" s="64">
-        <v>21931.184060193274</v>
+        <v>21865.080329781085</v>
       </c>
       <c t="n" r="AA14" s="64">
-        <v>21104.452626248807</v>
+        <v>21040.762930853438</v>
       </c>
       <c t="n" r="AB14" s="64">
-        <v>18036.69303801095</v>
+        <v>17972.591185047542</v>
       </c>
       <c t="n" r="AC14" s="64">
-        <v>19721.587678035445</v>
+        <v>19603.128667012574</v>
       </c>
       <c t="n" r="AD14" s="64">
-        <v>20965.470862355396</v>
+        <v>20896.11460785646</v>
       </c>
       <c t="n" r="AE14" s="64">
-        <v>20125.736256922853</v>
+        <v>20030.103248255844</v>
       </c>
       <c t="n" r="AF14" s="64">
-        <v>14636.120423741047</v>
+        <v>14537.851647382251</v>
       </c>
       <c t="n" r="AG14" s="64">
-        <v>11555.80882848247</v>
-      </c>
-      <c r="AH14" s="60">
-        <v>-0.7123644414132165</v>
+        <v>11407.083162753093</v>
+      </c>
+      <c t="n" r="AH14" s="64">
+        <v>12615.171509819087</v>
+      </c>
+      <c r="AI14" s="60">
+        <v>-0.686784736473886</v>
       </c>
     </row>
     <row r="15">
@@ -1588,3643 +1629,3650 @@
         </is>
       </c>
       <c t="n" r="B15" s="64">
-        <v>5635717.502108383</v>
+        <v>4860553.447865022</v>
       </c>
       <c t="n" r="C15" s="64">
-        <v>5635717.502108383</v>
+        <v>4860553.447865022</v>
       </c>
       <c t="n" r="D15" s="64">
-        <v>5542018.749140981</v>
+        <v>4755619.497676363</v>
       </c>
       <c t="n" r="E15" s="64">
-        <v>5368330.212734428</v>
+        <v>4605654.436023378</v>
       </c>
       <c t="n" r="F15" s="64">
-        <v>5271773.813102641</v>
+        <v>4527256.345098557</v>
       </c>
       <c t="n" r="G15" s="64">
-        <v>5241410.080835778</v>
+        <v>4503905.857962807</v>
       </c>
       <c t="n" r="H15" s="64">
-        <v>5288524.93111131</v>
+        <v>4554457.55728466</v>
       </c>
       <c t="n" r="I15" s="64">
-        <v>5400843.982970525</v>
+        <v>4645355.284013922</v>
       </c>
       <c t="n" r="J15" s="64">
-        <v>5306604.748431045</v>
+        <v>4574168.431254426</v>
       </c>
       <c t="n" r="K15" s="64">
-        <v>5265874.997050882</v>
+        <v>4535002.614665701</v>
       </c>
       <c t="n" r="L15" s="64">
-        <v>5160512.365072435</v>
+        <v>4458980.30452088</v>
       </c>
       <c t="n" r="M15" s="64">
-        <v>5151249.510159673</v>
+        <v>4446889.196270919</v>
       </c>
       <c t="n" r="N15" s="64">
-        <v>5203024.494706283</v>
+        <v>4495319.801582684</v>
       </c>
       <c t="n" r="O15" s="64">
-        <v>5168085.247002602</v>
+        <v>4480931.200117772</v>
       </c>
       <c t="n" r="P15" s="64">
-        <v>5255183.517236462</v>
+        <v>4561695.816783361</v>
       </c>
       <c t="n" r="Q15" s="64">
-        <v>5257153.4128987575</v>
+        <v>4564128.22122197</v>
       </c>
       <c t="n" r="R15" s="64">
-        <v>5221570.839903794</v>
+        <v>4537296.299834187</v>
       </c>
       <c t="n" r="S15" s="64">
-        <v>5210394.32984221</v>
+        <v>4533404.375745552</v>
       </c>
       <c t="n" r="T15" s="64">
-        <v>5166220.251006515</v>
+        <v>4498310.539005727</v>
       </c>
       <c t="n" r="U15" s="64">
-        <v>5050095.449030588</v>
+        <v>4404071.853632181</v>
       </c>
       <c t="n" r="V15" s="64">
-        <v>4677055.0616812855</v>
+        <v>4089028.6963626686</v>
       </c>
       <c t="n" r="W15" s="64">
-        <v>4778994.69771716</v>
+        <v>4176794.1319772517</v>
       </c>
       <c t="n" r="X15" s="64">
-        <v>4625050.568024608</v>
+        <v>4066020.1566450424</v>
       </c>
       <c t="n" r="Y15" s="64">
-        <v>4566472.0548418835</v>
+        <v>3991710.900201124</v>
       </c>
       <c t="n" r="Z15" s="64">
-        <v>4467189.7057192</v>
+        <v>3905193.3919545827</v>
       </c>
       <c t="n" r="AA15" s="64">
-        <v>4288667.553369638</v>
+        <v>3764333.0158579038</v>
       </c>
       <c t="n" r="AB15" s="64">
-        <v>4319050.293571285</v>
+        <v>3809061.4742881795</v>
       </c>
       <c t="n" r="AC15" s="64">
-        <v>4298611.950579876</v>
+        <v>3811406.648701867</v>
       </c>
       <c t="n" r="AD15" s="64">
-        <v>4312712.827895225</v>
+        <v>3832777.0425937427</v>
       </c>
       <c t="n" r="AE15" s="64">
-        <v>4218389.341962637</v>
+        <v>3747655.8899542014</v>
       </c>
       <c t="n" r="AF15" s="64">
-        <v>4044184.9179406106</v>
+        <v>3588259.6058129244</v>
       </c>
       <c t="n" r="AG15" s="64">
-        <v>3698853.381508869</v>
-      </c>
-      <c r="AH15" s="60">
-        <v>-0.3436765806438864</v>
+        <v>3300463.6100149504</v>
+      </c>
+      <c t="n" r="AH15" s="64">
+        <v>3468394.0846680133</v>
+      </c>
+      <c r="AI15" s="60">
+        <v>-0.286419926892998</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">European Union (KP)</t>
+          <t xml:space="preserve">Finland</t>
         </is>
       </c>
       <c t="n" r="B16" s="64">
-        <v>5642192.558379914</v>
+        <v>71087.75396261844</v>
       </c>
       <c t="n" r="C16" s="64">
-        <v>5642192.558379914</v>
+        <v>71087.75396261844</v>
       </c>
       <c t="n" r="D16" s="64">
-        <v>5548311.428199684</v>
+        <v>69041.44926411334</v>
       </c>
       <c t="n" r="E16" s="64">
-        <v>5374587.105010027</v>
+        <v>67681.54394491036</v>
       </c>
       <c t="n" r="F16" s="64">
-        <v>5278107.981314863</v>
+        <v>69915.16191134218</v>
       </c>
       <c t="n" r="G16" s="64">
-        <v>5247699.1421375945</v>
+        <v>75492.41065420011</v>
       </c>
       <c t="n" r="H16" s="64">
-        <v>5295010.673473152</v>
+        <v>71743.58806758357</v>
       </c>
       <c t="n" r="I16" s="64">
-        <v>5407504.578892704</v>
+        <v>77729.55560944475</v>
       </c>
       <c t="n" r="J16" s="64">
-        <v>5313575.456140498</v>
+        <v>76409.31395236585</v>
       </c>
       <c t="n" r="K16" s="64">
-        <v>5273192.012010126</v>
+        <v>72727.18296853332</v>
       </c>
       <c t="n" r="L16" s="64">
-        <v>5167898.856527114</v>
+        <v>72048.00631703965</v>
       </c>
       <c t="n" r="M16" s="64">
-        <v>5158572.210026555</v>
+        <v>70136.61497340673</v>
       </c>
       <c t="n" r="N16" s="64">
-        <v>5209996.209810236</v>
+        <v>75474.78477663387</v>
       </c>
       <c t="n" r="O16" s="64">
-        <v>5175109.535903237</v>
+        <v>77885.70742729191</v>
       </c>
       <c t="n" r="P16" s="64">
-        <v>5262079.984048261</v>
+        <v>85490.36893319906</v>
       </c>
       <c t="n" r="Q16" s="64">
-        <v>5264229.0285011325</v>
+        <v>81739.42599725492</v>
       </c>
       <c t="n" r="R16" s="64">
-        <v>5228639.801052802</v>
+        <v>69704.70374066071</v>
       </c>
       <c t="n" r="S16" s="64">
-        <v>5218133.2945208205</v>
+        <v>81112.61076280997</v>
       </c>
       <c t="n" r="T16" s="64">
-        <v>5174458.966171715</v>
+        <v>79441.35035652628</v>
       </c>
       <c t="n" r="U16" s="64">
-        <v>5058521.905510543</v>
+        <v>71310.28682329369</v>
       </c>
       <c t="n" r="V16" s="64">
-        <v>4685027.11441068</v>
+        <v>67693.5790911931</v>
       </c>
       <c t="n" r="W16" s="64">
-        <v>4786836.882556282</v>
+        <v>75555.95167179579</v>
       </c>
       <c t="n" r="X16" s="64">
-        <v>4632713.168516174</v>
+        <v>67815.56313020877</v>
       </c>
       <c t="n" r="Y16" s="64">
-        <v>4574217.762642411</v>
+        <v>62255.53291225799</v>
       </c>
       <c t="n" r="Z16" s="64">
-        <v>4475005.50444369</v>
+        <v>62700.93458020655</v>
       </c>
       <c t="n" r="AA16" s="64">
-        <v>4296458.238549416</v>
+        <v>58519.67764818188</v>
       </c>
       <c t="n" r="AB16" s="64">
-        <v>4326865.475995068</v>
+        <v>55009.23675844852</v>
       </c>
       <c t="n" r="AC16" s="64">
-        <v>4306282.879793131</v>
+        <v>57833.1955455622</v>
       </c>
       <c t="n" r="AD16" s="64">
-        <v>4320568.237554707</v>
+        <v>55030.86764255927</v>
       </c>
       <c t="n" r="AE16" s="64">
-        <v>4226365.927390489</v>
+        <v>55949.65611999978</v>
       </c>
       <c t="n" r="AF16" s="64">
-        <v>4052078.777650396</v>
+        <v>52726.08350239061</v>
       </c>
       <c t="n" r="AG16" s="64">
-        <v>3706109.8273243993</v>
-      </c>
-      <c r="AH16" s="60">
-        <v>-0.34314368235802234</v>
+        <v>47756.280967039784</v>
+      </c>
+      <c t="n" r="AH16" s="64">
+        <v>47799.49035379345</v>
+      </c>
+      <c r="AI16" s="60">
+        <v>-0.3275988100717198</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Finland</t>
+          <t xml:space="preserve">France</t>
         </is>
       </c>
       <c t="n" r="B17" s="64">
-        <v>71015.76757176757</v>
+        <v>540830.691723612</v>
       </c>
       <c t="n" r="C17" s="64">
-        <v>71015.76757176757</v>
+        <v>540830.691723612</v>
       </c>
       <c t="n" r="D17" s="64">
-        <v>68929.12027182603</v>
+        <v>566897.4261630173</v>
       </c>
       <c t="n" r="E17" s="64">
-        <v>67511.7972127365</v>
+        <v>557279.9378957922</v>
       </c>
       <c t="n" r="F17" s="64">
-        <v>69761.20077671556</v>
+        <v>536244.4579717816</v>
       </c>
       <c t="n" r="G17" s="64">
-        <v>75346.7525381657</v>
+        <v>528083.7958976508</v>
       </c>
       <c t="n" r="H17" s="64">
-        <v>71632.46109473768</v>
+        <v>534172.1601227201</v>
       </c>
       <c t="n" r="I17" s="64">
-        <v>77625.71804281804</v>
+        <v>552521.597290805</v>
       </c>
       <c t="n" r="J17" s="64">
-        <v>76325.07675199045</v>
+        <v>544943.5830394449</v>
       </c>
       <c t="n" r="K17" s="64">
-        <v>72632.57626592589</v>
+        <v>559284.2600876163</v>
       </c>
       <c t="n" r="L17" s="64">
-        <v>72008.85635178369</v>
+        <v>554358.7704375555</v>
       </c>
       <c t="n" r="M17" s="64">
-        <v>70130.08433370135</v>
+        <v>548714.5056501504</v>
       </c>
       <c t="n" r="N17" s="64">
-        <v>75462.55034472933</v>
+        <v>554283.2630822243</v>
       </c>
       <c t="n" r="O17" s="64">
-        <v>77894.20676066198</v>
+        <v>548271.4818949241</v>
       </c>
       <c t="n" r="P17" s="64">
-        <v>85529.77161833992</v>
+        <v>552609.4518047159</v>
       </c>
       <c t="n" r="Q17" s="64">
-        <v>81823.58992960256</v>
+        <v>552209.0606327021</v>
       </c>
       <c t="n" r="R17" s="64">
-        <v>69849.49929575027</v>
+        <v>553899.4783788981</v>
       </c>
       <c t="n" r="S17" s="64">
-        <v>81206.91801744512</v>
+        <v>543309.9254080639</v>
       </c>
       <c t="n" r="T17" s="64">
-        <v>79565.72720976088</v>
+        <v>533554.3841830055</v>
       </c>
       <c t="n" r="U17" s="64">
-        <v>71466.30785929035</v>
+        <v>528088.1635183394</v>
       </c>
       <c t="n" r="V17" s="64">
-        <v>67794.6058433274</v>
+        <v>506882.0991753864</v>
       </c>
       <c t="n" r="W17" s="64">
-        <v>75602.47454906435</v>
+        <v>511152.92084080854</v>
       </c>
       <c t="n" r="X17" s="64">
-        <v>67835.63005883279</v>
+        <v>486264.3277982289</v>
       </c>
       <c t="n" r="Y17" s="64">
-        <v>62290.098807044546</v>
+        <v>488200.2480847426</v>
       </c>
       <c t="n" r="Z17" s="64">
-        <v>62724.30907222046</v>
+        <v>487905.79791121447</v>
       </c>
       <c t="n" r="AA17" s="64">
-        <v>58546.37360526665</v>
+        <v>456751.0150934993</v>
       </c>
       <c t="n" r="AB17" s="64">
-        <v>54970.87109785617</v>
+        <v>460283.690766284</v>
       </c>
       <c t="n" r="AC17" s="64">
-        <v>57868.14049405817</v>
+        <v>462641.63510079193</v>
       </c>
       <c t="n" r="AD17" s="64">
-        <v>55056.069186817724</v>
+        <v>465262.15452766494</v>
       </c>
       <c t="n" r="AE17" s="64">
-        <v>56125.12111132911</v>
+        <v>447070.00518617587</v>
       </c>
       <c t="n" r="AF17" s="64">
-        <v>52734.654837282375</v>
+        <v>437646.6265455071</v>
       </c>
       <c t="n" r="AG17" s="64">
-        <v>47716.29645917408</v>
-      </c>
-      <c r="AH17" s="60">
-        <v>-0.3280887035269648</v>
+        <v>398297.0307964555</v>
+      </c>
+      <c t="n" r="AH17" s="64">
+        <v>420060.7559362686</v>
+      </c>
+      <c r="AI17" s="60">
+        <v>-0.22330451587807099</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">France</t>
+          <t xml:space="preserve">Germany</t>
         </is>
       </c>
       <c t="n" r="B18" s="64">
-        <v>547183.2286602077</v>
+        <v>1251224.7820217845</v>
       </c>
       <c t="n" r="C18" s="64">
-        <v>547183.2286602077</v>
+        <v>1251224.7820217845</v>
       </c>
       <c t="n" r="D18" s="64">
-        <v>574174.3336639642</v>
+        <v>1205064.5794402582</v>
       </c>
       <c t="n" r="E18" s="64">
-        <v>562058.2533584526</v>
+        <v>1155625.635195283</v>
       </c>
       <c t="n" r="F18" s="64">
-        <v>542044.614802852</v>
+        <v>1146306.6718871216</v>
       </c>
       <c t="n" r="G18" s="64">
-        <v>534674.4197823444</v>
+        <v>1127792.5707754334</v>
       </c>
       <c t="n" r="H18" s="64">
-        <v>540195.1947930359</v>
+        <v>1120660.8075671864</v>
       </c>
       <c t="n" r="I18" s="64">
-        <v>557168.3824820194</v>
+        <v>1137868.949258957</v>
       </c>
       <c t="n" r="J18" s="64">
-        <v>549668.4107190114</v>
+        <v>1102187.361348096</v>
       </c>
       <c t="n" r="K18" s="64">
-        <v>564256.4786010757</v>
+        <v>1077604.0521087889</v>
       </c>
       <c t="n" r="L18" s="64">
-        <v>558784.3208457783</v>
+        <v>1043180.8320678392</v>
       </c>
       <c t="n" r="M18" s="64">
-        <v>553001.7364344463</v>
+        <v>1040191.8307374913</v>
       </c>
       <c t="n" r="N18" s="64">
-        <v>558358.4405219858</v>
+        <v>1054869.0731494138</v>
       </c>
       <c t="n" r="O18" s="64">
-        <v>553086.8358500928</v>
+        <v>1033037.8635554801</v>
       </c>
       <c t="n" r="P18" s="64">
-        <v>556136.3068760098</v>
+        <v>1029390.0137405848</v>
       </c>
       <c t="n" r="Q18" s="64">
-        <v>555107.217904544</v>
+        <v>1010291.1403540279</v>
       </c>
       <c t="n" r="R18" s="64">
-        <v>556120.5490918644</v>
+        <v>984986.9707512642</v>
       </c>
       <c t="n" r="S18" s="64">
-        <v>545587.443650175</v>
+        <v>991897.3613902655</v>
       </c>
       <c t="n" r="T18" s="64">
-        <v>536374.9970395274</v>
+        <v>964865.0603174377</v>
       </c>
       <c t="n" r="U18" s="64">
-        <v>530722.7959586802</v>
+        <v>964974.318655693</v>
       </c>
       <c t="n" r="V18" s="64">
-        <v>508213.8968857699</v>
+        <v>898336.0053614669</v>
       </c>
       <c t="n" r="W18" s="64">
-        <v>512753.4920943547</v>
+        <v>932379.1343375503</v>
       </c>
       <c t="n" r="X18" s="64">
-        <v>488753.4496870762</v>
+        <v>907502.1586865702</v>
       </c>
       <c t="n" r="Y18" s="64">
-        <v>490256.22877098277</v>
+        <v>913347.7275315437</v>
       </c>
       <c t="n" r="Z18" s="64">
-        <v>491335.78632980504</v>
+        <v>933505.3729951831</v>
       </c>
       <c t="n" r="AA18" s="64">
-        <v>461189.490089847</v>
+        <v>893394.4200241285</v>
       </c>
       <c t="n" r="AB18" s="64">
-        <v>464491.268423757</v>
+        <v>896657.8723631194</v>
       </c>
       <c t="n" r="AC18" s="64">
-        <v>466376.97830785566</v>
+        <v>898559.8146406538</v>
       </c>
       <c t="n" r="AD18" s="64">
-        <v>469718.62466167205</v>
+        <v>881582.7789193881</v>
       </c>
       <c t="n" r="AE18" s="64">
-        <v>450787.0775180861</v>
+        <v>846171.189524816</v>
       </c>
       <c t="n" r="AF18" s="64">
-        <v>441488.01258991</v>
+        <v>794633.6689419402</v>
       </c>
       <c t="n" r="AG18" s="64">
-        <v>399412.66809201904</v>
-      </c>
-      <c r="AH18" s="60">
-        <v>-0.2700568161235656</v>
+        <v>730922.689163224</v>
+      </c>
+      <c t="n" r="AH18" s="64">
+        <v>760358.0080578338</v>
+      </c>
+      <c r="AI18" s="60">
+        <v>-0.3923090247387735</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Germany</t>
+          <t xml:space="preserve">Greece</t>
         </is>
       </c>
       <c t="n" r="B19" s="64">
-        <v>1241919.2336379162</v>
+        <v>103985.68654576177</v>
       </c>
       <c t="n" r="C19" s="64">
-        <v>1241919.2336379162</v>
+        <v>103985.68654576177</v>
       </c>
       <c t="n" r="D19" s="64">
-        <v>1195966.137569707</v>
+        <v>104006.31326456984</v>
       </c>
       <c t="n" r="E19" s="64">
-        <v>1146454.3415997694</v>
+        <v>105287.65581789096</v>
       </c>
       <c t="n" r="F19" s="64">
-        <v>1137451.3670295435</v>
+        <v>104828.02553162507</v>
       </c>
       <c t="n" r="G19" s="64">
-        <v>1119681.9677145246</v>
+        <v>107457.57758008047</v>
       </c>
       <c t="n" r="H19" s="64">
-        <v>1115305.3568839307</v>
+        <v>109581.12427883437</v>
       </c>
       <c t="n" r="I19" s="64">
-        <v>1133362.8841356516</v>
+        <v>112615.84276123565</v>
       </c>
       <c t="n" r="J19" s="64">
-        <v>1098413.4011832394</v>
+        <v>117470.4628269436</v>
       </c>
       <c t="n" r="K19" s="64">
-        <v>1073178.3228416073</v>
+        <v>122993.73330469239</v>
       </c>
       <c t="n" r="L19" s="64">
-        <v>1039200.1722997575</v>
+        <v>122985.87498968228</v>
       </c>
       <c t="n" r="M19" s="64">
-        <v>1036926.2614133953</v>
+        <v>126659.45444593692</v>
       </c>
       <c t="n" r="N19" s="64">
-        <v>1052999.4768092898</v>
+        <v>127731.0279390771</v>
       </c>
       <c t="n" r="O19" s="64">
-        <v>1031672.5091243051</v>
+        <v>127719.17342569178</v>
       </c>
       <c t="n" r="P19" s="64">
-        <v>1028625.7718901988</v>
+        <v>131569.0029141481</v>
       </c>
       <c t="n" r="Q19" s="64">
-        <v>1011768.8299036089</v>
+        <v>132215.07354936548</v>
       </c>
       <c t="n" r="R19" s="64">
-        <v>986709.4845637429</v>
+        <v>136748.13906160498</v>
       </c>
       <c t="n" r="S19" s="64">
-        <v>993738.7322306839</v>
+        <v>133270.70781447715</v>
       </c>
       <c t="n" r="T19" s="64">
-        <v>968039.596654852</v>
+        <v>135855.39112081303</v>
       </c>
       <c t="n" r="U19" s="64">
-        <v>968935.0300612418</v>
+        <v>132481.94250149585</v>
       </c>
       <c t="n" r="V19" s="64">
-        <v>902742.0596776552</v>
+        <v>125261.38853158425</v>
       </c>
       <c t="n" r="W19" s="64">
-        <v>935768.3641716995</v>
+        <v>119159.95184704258</v>
       </c>
       <c t="n" r="X19" s="64">
-        <v>911243.7741955409</v>
+        <v>116179.12320939032</v>
       </c>
       <c t="n" r="Y19" s="64">
-        <v>916901.0167330219</v>
+        <v>112923.94791506063</v>
       </c>
       <c t="n" r="Z19" s="64">
-        <v>933987.3611734097</v>
+        <v>103262.33638486936</v>
       </c>
       <c t="n" r="AA19" s="64">
-        <v>894464.5405396456</v>
+        <v>99837.25805642919</v>
       </c>
       <c t="n" r="AB19" s="64">
-        <v>897953.6712155577</v>
+        <v>95965.28726092017</v>
       </c>
       <c t="n" r="AC19" s="64">
-        <v>901442.0299543357</v>
+        <v>92274.51701634732</v>
       </c>
       <c t="n" r="AD19" s="64">
-        <v>885729.4690226098</v>
+        <v>96110.31732986213</v>
       </c>
       <c t="n" r="AE19" s="64">
-        <v>850541.9867950666</v>
+        <v>92857.12047343356</v>
       </c>
       <c t="n" r="AF19" s="64">
-        <v>799733.9877676027</v>
+        <v>86153.27248765744</v>
       </c>
       <c t="n" r="AG19" s="64">
-        <v>728737.6532843029</v>
-      </c>
-      <c r="AH19" s="60">
-        <v>-0.41321654939698943</v>
+        <v>75464.48733005801</v>
+      </c>
+      <c t="n" r="AH19" s="64">
+        <v>77488.82832741895</v>
+      </c>
+      <c r="AI19" s="60">
+        <v>-0.25481255255916546</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Greece</t>
+          <t xml:space="preserve">Hungary</t>
         </is>
       </c>
       <c t="n" r="B20" s="64">
-        <v>103450.64031634766</v>
+        <v>110373.29202362456</v>
       </c>
       <c t="n" r="C20" s="64">
-        <v>103450.64031634766</v>
+        <v>94985.02340001632</v>
       </c>
       <c t="n" r="D20" s="64">
-        <v>103503.17769845077</v>
+        <v>88674.84005233968</v>
       </c>
       <c t="n" r="E20" s="64">
-        <v>104711.34936499847</v>
+        <v>78847.27517183521</v>
       </c>
       <c t="n" r="F20" s="64">
-        <v>104318.90964580192</v>
+        <v>79865.0419460984</v>
       </c>
       <c t="n" r="G20" s="64">
-        <v>107040.73325628426</v>
+        <v>78750.64400786403</v>
       </c>
       <c t="n" r="H20" s="64">
-        <v>109399.05975325</v>
+        <v>77647.6813082014</v>
       </c>
       <c t="n" r="I20" s="64">
-        <v>112533.54096210115</v>
+        <v>79804.29798907427</v>
       </c>
       <c t="n" r="J20" s="64">
-        <v>117432.53331737328</v>
+        <v>78308.28785591928</v>
       </c>
       <c t="n" r="K20" s="64">
-        <v>123012.63842637515</v>
+        <v>77784.48543533747</v>
       </c>
       <c t="n" r="L20" s="64">
-        <v>123144.35051978823</v>
+        <v>78248.02772768191</v>
       </c>
       <c t="n" r="M20" s="64">
-        <v>126532.37208278221</v>
+        <v>75378.31288546408</v>
       </c>
       <c t="n" r="N20" s="64">
-        <v>127576.18763472723</v>
+        <v>77184.97899597911</v>
       </c>
       <c t="n" r="O20" s="64">
-        <v>127561.93939144327</v>
+        <v>75478.63172184436</v>
       </c>
       <c t="n" r="P20" s="64">
-        <v>131303.76214069454</v>
+        <v>78367.70402813055</v>
       </c>
       <c t="n" r="Q20" s="64">
-        <v>131947.81877800188</v>
+        <v>77192.04976466029</v>
       </c>
       <c t="n" r="R20" s="64">
-        <v>136414.3450187068</v>
+        <v>76954.88406575262</v>
       </c>
       <c t="n" r="S20" s="64">
-        <v>132494.1940679574</v>
+        <v>75660.29299219554</v>
       </c>
       <c t="n" r="T20" s="64">
-        <v>135149.15191625792</v>
+        <v>74010.8348413439</v>
       </c>
       <c t="n" r="U20" s="64">
-        <v>131795.74052216962</v>
+        <v>71954.60417938085</v>
       </c>
       <c t="n" r="V20" s="64">
-        <v>124587.31379724838</v>
+        <v>65924.48204844142</v>
       </c>
       <c t="n" r="W20" s="64">
-        <v>118511.00698611641</v>
+        <v>66533.7863601873</v>
       </c>
       <c t="n" r="X20" s="64">
-        <v>115528.99135531858</v>
+        <v>64870.17196404225</v>
       </c>
       <c t="n" r="Y20" s="64">
-        <v>112271.63109349391</v>
+        <v>61557.1170316172</v>
       </c>
       <c t="n" r="Z20" s="64">
-        <v>102778.44917731914</v>
+        <v>58661.109496170066</v>
       </c>
       <c t="n" r="AA20" s="64">
-        <v>99366.71320363543</v>
+        <v>58993.14019688529</v>
       </c>
       <c t="n" r="AB20" s="64">
-        <v>95528.71337423233</v>
+        <v>62201.09364232352</v>
       </c>
       <c t="n" r="AC20" s="64">
-        <v>91911.68164690377</v>
+        <v>62696.22138233811</v>
       </c>
       <c t="n" r="AD20" s="64">
-        <v>95710.70607388287</v>
+        <v>65072.75783380431</v>
       </c>
       <c t="n" r="AE20" s="64">
-        <v>92417.47034976617</v>
+        <v>65033.636799402455</v>
       </c>
       <c t="n" r="AF20" s="64">
-        <v>85707.31967974287</v>
+        <v>64771.78798772565</v>
       </c>
       <c t="n" r="AG20" s="64">
-        <v>74941.22649115905</v>
-      </c>
-      <c r="AH20" s="60">
-        <v>-0.27558470143836755</v>
+        <v>62965.31726143112</v>
+      </c>
+      <c t="n" r="AH20" s="64">
+        <v>64217.84138502936</v>
+      </c>
+      <c r="AI20" s="60">
+        <v>-0.4181758991905033</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Hungary</t>
+          <t xml:space="preserve">Iceland</t>
         </is>
       </c>
       <c t="n" r="B21" s="64">
-        <v>110520.7044166323</v>
+        <v>3682.0449567323494</v>
       </c>
       <c t="n" r="C21" s="64">
-        <v>94820.9221073324</v>
+        <v>3682.0449567323494</v>
       </c>
       <c t="n" r="D21" s="64">
-        <v>88340.31983644444</v>
+        <v>3475.789967245591</v>
       </c>
       <c t="n" r="E21" s="64">
-        <v>78157.64848445909</v>
+        <v>3409.119109929906</v>
       </c>
       <c t="n" r="F21" s="64">
-        <v>79372.32515792939</v>
+        <v>3496.4158432462727</v>
       </c>
       <c t="n" r="G21" s="64">
-        <v>78430.42835006425</v>
+        <v>3424.410184578534</v>
       </c>
       <c t="n" r="H21" s="64">
-        <v>77194.41230181047</v>
+        <v>3554.690641108072</v>
       </c>
       <c t="n" r="I21" s="64">
-        <v>79554.03495329559</v>
+        <v>3615.808063796697</v>
       </c>
       <c t="n" r="J21" s="64">
-        <v>78011.92271323546</v>
+        <v>3774.4657602293237</v>
       </c>
       <c t="n" r="K21" s="64">
-        <v>77400.90587965176</v>
+        <v>3907.3632618017145</v>
       </c>
       <c t="n" r="L21" s="64">
-        <v>77817.22493218919</v>
+        <v>4123.132415455589</v>
       </c>
       <c t="n" r="M21" s="64">
-        <v>74928.8132383766</v>
+        <v>4154.228591106366</v>
       </c>
       <c t="n" r="N21" s="64">
-        <v>76868.9165704227</v>
+        <v>4049.7344050403667</v>
       </c>
       <c t="n" r="O21" s="64">
-        <v>75141.79575012278</v>
+        <v>4143.911387559893</v>
       </c>
       <c t="n" r="P21" s="64">
-        <v>78048.28011215742</v>
+        <v>4106.869111778213</v>
       </c>
       <c t="n" r="Q21" s="64">
-        <v>76946.24282039986</v>
+        <v>4210.91789329245</v>
       </c>
       <c t="n" r="R21" s="64">
-        <v>76713.57119916182</v>
+        <v>4059.3399556064237</v>
       </c>
       <c t="n" r="S21" s="64">
-        <v>75480.55531872566</v>
+        <v>4619.4184736026755</v>
       </c>
       <c t="n" r="T21" s="64">
-        <v>73703.71214385181</v>
+        <v>4924.3180554585615</v>
       </c>
       <c t="n" r="U21" s="64">
-        <v>71559.70908715088</v>
+        <v>5307.800550569595</v>
       </c>
       <c t="n" r="V21" s="64">
-        <v>65358.16243281286</v>
+        <v>5001.504089541084</v>
       </c>
       <c t="n" r="W21" s="64">
-        <v>66021.0828155025</v>
+        <v>4906.351342483006</v>
       </c>
       <c t="n" r="X21" s="64">
-        <v>64309.221825909226</v>
+        <v>4692.247217385131</v>
       </c>
       <c t="n" r="Y21" s="64">
-        <v>60915.39586815142</v>
+        <v>4686.9000811943115</v>
       </c>
       <c t="n" r="Z21" s="64">
-        <v>58033.03710247344</v>
+        <v>4694.672122555327</v>
       </c>
       <c t="n" r="AA21" s="64">
-        <v>58401.35203392705</v>
+        <v>4687.515325664641</v>
       </c>
       <c t="n" r="AB21" s="64">
-        <v>61495.83147224415</v>
+        <v>4772.708332937445</v>
       </c>
       <c t="n" r="AC21" s="64">
-        <v>62256.33601580078</v>
+        <v>4715.537093303604</v>
       </c>
       <c t="n" r="AD21" s="64">
-        <v>64728.75410719531</v>
+        <v>4799.699174130512</v>
       </c>
       <c t="n" r="AE21" s="64">
-        <v>64756.34869411472</v>
+        <v>4870.4139973526135</v>
       </c>
       <c t="n" r="AF21" s="64">
-        <v>64580.97498019015</v>
+        <v>4723.898079044431</v>
       </c>
       <c t="n" r="AG21" s="64">
-        <v>62818.385616135005</v>
-      </c>
-      <c r="AH21" s="60">
-        <v>-0.4316143210657872</v>
+        <v>4521.059266209522</v>
+      </c>
+      <c t="n" r="AH21" s="64">
+        <v>4662.239514960989</v>
+      </c>
+      <c r="AI21" s="60">
+        <v>0.2662092858036472</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Iceland</t>
+          <t xml:space="preserve">Ireland</t>
         </is>
       </c>
       <c t="n" r="B22" s="64">
-        <v>3674.4809076568968</v>
+        <v>55642.83600014751</v>
       </c>
       <c t="n" r="C22" s="64">
-        <v>3674.4809076568968</v>
+        <v>55642.83600014751</v>
       </c>
       <c t="n" r="D22" s="64">
-        <v>3459.8516663252744</v>
+        <v>56553.462803865856</v>
       </c>
       <c t="n" r="E22" s="64">
-        <v>3369.3998783882507</v>
+        <v>56589.557547142074</v>
       </c>
       <c t="n" r="F22" s="64">
-        <v>3449.368195563394</v>
+        <v>57186.82592011438</v>
       </c>
       <c t="n" r="G22" s="64">
-        <v>3376.1588282223775</v>
+        <v>58593.62412214629</v>
       </c>
       <c t="n" r="H22" s="64">
-        <v>3506.1753211287937</v>
+        <v>60080.65771070989</v>
       </c>
       <c t="n" r="I22" s="64">
-        <v>3563.5684422141485</v>
+        <v>62245.16813145973</v>
       </c>
       <c t="n" r="J22" s="64">
-        <v>3731.122566293999</v>
+        <v>63683.61577143688</v>
       </c>
       <c t="n" r="K22" s="64">
-        <v>3875.49962265437</v>
+        <v>66292.45599229092</v>
       </c>
       <c t="n" r="L22" s="64">
-        <v>4096.918691362546</v>
+        <v>67523.40874173563</v>
       </c>
       <c t="n" r="M22" s="64">
-        <v>4119.481242084038</v>
+        <v>69712.38242934793</v>
       </c>
       <c t="n" r="N22" s="64">
-        <v>4011.136040988704</v>
+        <v>71814.4543098089</v>
       </c>
       <c t="n" r="O22" s="64">
-        <v>4101.83529869391</v>
+        <v>69975.20042390282</v>
       </c>
       <c t="n" r="P22" s="64">
-        <v>4065.1715220828028</v>
+        <v>70468.49743623965</v>
       </c>
       <c t="n" r="Q22" s="64">
-        <v>4167.988873284176</v>
+        <v>69723.02346783421</v>
       </c>
       <c t="n" r="R22" s="64">
-        <v>4018.83850102766</v>
+        <v>71531.47891096478</v>
       </c>
       <c t="n" r="S22" s="64">
-        <v>4608.876091431904</v>
+        <v>71019.46340070856</v>
       </c>
       <c t="n" r="T22" s="64">
-        <v>4906.69972079673</v>
+        <v>69874.86699083126</v>
       </c>
       <c t="n" r="U22" s="64">
-        <v>5299.865567134459</v>
+        <v>69330.43544975463</v>
       </c>
       <c t="n" r="V22" s="64">
-        <v>4969.116317953867</v>
+        <v>63528.25857328334</v>
       </c>
       <c t="n" r="W22" s="64">
-        <v>4864.921586613175</v>
+        <v>63032.161987078965</v>
       </c>
       <c t="n" r="X22" s="64">
-        <v>4646.539095567322</v>
+        <v>58852.52570908151</v>
       </c>
       <c t="n" r="Y22" s="64">
-        <v>4653.193289725441</v>
+        <v>59939.50723250403</v>
       </c>
       <c t="n" r="Z22" s="64">
-        <v>4661.030556210798</v>
+        <v>59711.60657991649</v>
       </c>
       <c t="n" r="AA22" s="64">
-        <v>4661.461295830477</v>
+        <v>59220.74208123953</v>
       </c>
       <c t="n" r="AB22" s="64">
-        <v>4746.023520688837</v>
+        <v>61724.02831211089</v>
       </c>
       <c t="n" r="AC22" s="64">
-        <v>4692.480155280686</v>
+        <v>64005.35717011128</v>
       </c>
       <c t="n" r="AD22" s="64">
-        <v>4776.967094270128</v>
+        <v>63424.534744706</v>
       </c>
       <c t="n" r="AE22" s="64">
-        <v>4847.088204670225</v>
+        <v>63734.108308295996</v>
       </c>
       <c t="n" r="AF22" s="64">
-        <v>4713.008759863949</v>
+        <v>61165.03862159391</v>
       </c>
       <c t="n" r="AG22" s="64">
-        <v>4509.63950841403</v>
-      </c>
-      <c r="AH22" s="60">
-        <v>0.2272861451033334</v>
+        <v>59056.3005943482</v>
+      </c>
+      <c t="n" r="AH22" s="64">
+        <v>62109.86923806549</v>
+      </c>
+      <c r="AI22" s="60">
+        <v>0.11622400479193472</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Ireland</t>
+          <t xml:space="preserve">Italy</t>
         </is>
       </c>
       <c t="n" r="B23" s="64">
-        <v>54823.19023832051</v>
+        <v>521480.33766023244</v>
       </c>
       <c t="n" r="C23" s="64">
-        <v>54823.19023832051</v>
+        <v>521480.33766023244</v>
       </c>
       <c t="n" r="D23" s="64">
-        <v>55674.524821669285</v>
+        <v>522696.6663317838</v>
       </c>
       <c t="n" r="E23" s="64">
-        <v>55678.381612670855</v>
+        <v>521991.34795925865</v>
       </c>
       <c t="n" r="F23" s="64">
-        <v>56268.97549787204</v>
+        <v>515159.96493061306</v>
       </c>
       <c t="n" r="G23" s="64">
-        <v>57697.723460031986</v>
+        <v>509371.38785462116</v>
       </c>
       <c t="n" r="H23" s="64">
-        <v>59223.6031127338</v>
+        <v>535653.7085150072</v>
       </c>
       <c t="n" r="I23" s="64">
-        <v>61401.847869477315</v>
+        <v>530375.912969233</v>
       </c>
       <c t="n" r="J23" s="64">
-        <v>62818.56105600684</v>
+        <v>538111.3679932973</v>
       </c>
       <c t="n" r="K23" s="64">
-        <v>65470.406554186484</v>
+        <v>550585.9913465071</v>
       </c>
       <c t="n" r="L23" s="64">
-        <v>66731.57956608193</v>
+        <v>556140.3785809748</v>
       </c>
       <c t="n" r="M23" s="64">
-        <v>68937.36513678104</v>
+        <v>559978.141724162</v>
       </c>
       <c t="n" r="N23" s="64">
-        <v>70923.57568926772</v>
+        <v>561839.9539627755</v>
       </c>
       <c t="n" r="O23" s="64">
-        <v>68970.29288028314</v>
+        <v>567753.0807842279</v>
       </c>
       <c t="n" r="P23" s="64">
-        <v>69367.00689289672</v>
+        <v>587247.8885906675</v>
       </c>
       <c t="n" r="Q23" s="64">
-        <v>68791.67616178466</v>
+        <v>592903.4234941524</v>
       </c>
       <c t="n" r="R23" s="64">
-        <v>70678.99332530756</v>
+        <v>594197.3806370044</v>
       </c>
       <c t="n" r="S23" s="64">
-        <v>70028.44506364956</v>
+        <v>584053.0719655683</v>
       </c>
       <c t="n" r="T23" s="64">
-        <v>68967.00912317369</v>
+        <v>578814.4759464087</v>
       </c>
       <c t="n" r="U23" s="64">
-        <v>68464.89436421354</v>
+        <v>566242.9713549032</v>
       </c>
       <c t="n" r="V23" s="64">
-        <v>62660.702844649204</v>
+        <v>511654.9935056384</v>
       </c>
       <c t="n" r="W23" s="64">
-        <v>62176.45435559617</v>
+        <v>523465.6995954835</v>
       </c>
       <c t="n" r="X23" s="64">
-        <v>57977.99964893746</v>
+        <v>510854.6122946139</v>
       </c>
       <c t="n" r="Y23" s="64">
-        <v>59038.37833587879</v>
+        <v>491949.91287324665</v>
       </c>
       <c t="n" r="Z23" s="64">
-        <v>58837.55898889471</v>
+        <v>456475.7243060313</v>
       </c>
       <c t="n" r="AA23" s="64">
-        <v>58315.698490405994</v>
+        <v>435399.33231128607</v>
       </c>
       <c t="n" r="AB23" s="64">
-        <v>60768.08510518608</v>
+        <v>445735.65047548397</v>
       </c>
       <c t="n" r="AC23" s="64">
-        <v>62998.052779285135</v>
+        <v>442962.2778844347</v>
       </c>
       <c t="n" r="AD23" s="64">
-        <v>62379.84696853782</v>
+        <v>437340.97889997833</v>
       </c>
       <c t="n" r="AE23" s="64">
-        <v>62662.097243746764</v>
+        <v>433630.90691174875</v>
       </c>
       <c t="n" r="AF23" s="64">
-        <v>60158.0130202528</v>
+        <v>422276.17298835405</v>
       </c>
       <c t="n" r="AG23" s="64">
-        <v>58032.34026042229</v>
-      </c>
-      <c r="AH23" s="60">
-        <v>0.05853636040061447</v>
+        <v>384969.8768889378</v>
+      </c>
+      <c t="n" r="AH23" s="64">
+        <v>417591.43359860114</v>
+      </c>
+      <c r="AI23" s="60">
+        <v>-0.19921921606432558</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Italy</t>
+          <t xml:space="preserve">Japan</t>
         </is>
       </c>
       <c t="n" r="B24" s="64">
-        <v>519907.93652764335</v>
+        <v>1269334.0277935523</v>
       </c>
       <c t="n" r="C24" s="64">
-        <v>519907.93652764335</v>
+        <v>1269334.0277935523</v>
       </c>
       <c t="n" r="D24" s="64">
-        <v>521154.08785825496</v>
+        <v>1283796.2941880254</v>
       </c>
       <c t="n" r="E24" s="64">
-        <v>520199.41961990343</v>
+        <v>1295612.0203380187</v>
       </c>
       <c t="n" r="F24" s="64">
-        <v>513231.7858380836</v>
+        <v>1291392.1393465407</v>
       </c>
       <c t="n" r="G24" s="64">
-        <v>507332.06282281794</v>
+        <v>1352429.7605521784</v>
       </c>
       <c t="n" r="H24" s="64">
-        <v>533876.4463044464</v>
+        <v>1373818.2536209319</v>
       </c>
       <c t="n" r="I24" s="64">
-        <v>528309.1033520391</v>
+        <v>1386747.6028350396</v>
       </c>
       <c t="n" r="J24" s="64">
-        <v>535982.6854444976</v>
+        <v>1378810.2378583306</v>
       </c>
       <c t="n" r="K24" s="64">
-        <v>548410.4855589232</v>
+        <v>1330304.186558524</v>
       </c>
       <c t="n" r="L24" s="64">
-        <v>553714.5133651365</v>
+        <v>1353662.4034976356</v>
       </c>
       <c t="n" r="M24" s="64">
-        <v>557290.628564935</v>
+        <v>1373303.419544336</v>
       </c>
       <c t="n" r="N24" s="64">
-        <v>558983.2861626653</v>
+        <v>1347561.425447126</v>
       </c>
       <c t="n" r="O24" s="64">
-        <v>564909.797842376</v>
+        <v>1371613.8772792483</v>
       </c>
       <c t="n" r="P24" s="64">
-        <v>584005.5407281452</v>
+        <v>1378452.0318559639</v>
       </c>
       <c t="n" r="Q24" s="64">
-        <v>589774.2975691422</v>
+        <v>1369829.3001435811</v>
       </c>
       <c t="n" r="R24" s="64">
-        <v>590908.2102863304</v>
+        <v>1377463.8762485653</v>
       </c>
       <c t="n" r="S24" s="64">
-        <v>580197.2234644955</v>
+        <v>1356080.2467625567</v>
       </c>
       <c t="n" r="T24" s="64">
-        <v>574665.8101532646</v>
+        <v>1391300.2596107419</v>
       </c>
       <c t="n" r="U24" s="64">
-        <v>561556.791851648</v>
+        <v>1318507.415320218</v>
       </c>
       <c t="n" r="V24" s="64">
-        <v>506541.1260766666</v>
+        <v>1246549.6220512758</v>
       </c>
       <c t="n" r="W24" s="64">
-        <v>517804.0644577969</v>
+        <v>1300046.7478132925</v>
       </c>
       <c t="n" r="X24" s="64">
-        <v>505141.14452954475</v>
+        <v>1350741.1359555982</v>
       </c>
       <c t="n" r="Y24" s="64">
-        <v>485879.7350480063</v>
+        <v>1393594.1563813651</v>
       </c>
       <c t="n" r="Z24" s="64">
-        <v>450434.4119112475</v>
+        <v>1405350.4238756394</v>
       </c>
       <c t="n" r="AA24" s="64">
-        <v>429340.84211545094</v>
+        <v>1356511.0219224757</v>
       </c>
       <c t="n" r="AB24" s="64">
-        <v>441759.07318508724</v>
+        <v>1317836.1955129586</v>
       </c>
       <c t="n" r="AC24" s="64">
-        <v>439274.36981436645</v>
+        <v>1300146.7732284695</v>
       </c>
       <c t="n" r="AD24" s="64">
-        <v>433482.09669736726</v>
+        <v>1286736.263168755</v>
       </c>
       <c t="n" r="AE24" s="64">
-        <v>429624.381725522</v>
+        <v>1242715.707133676</v>
       </c>
       <c t="n" r="AF24" s="64">
-        <v>418352.21922863513</v>
+        <v>1207742.416489948</v>
       </c>
       <c t="n" r="AG24" s="64">
-        <v>381247.9621297045</v>
-      </c>
-      <c r="AH24" s="60">
-        <v>-0.26670101503743127</v>
+        <v>1144932.4969955173</v>
+      </c>
+      <c t="n" r="AH24" s="64">
+        <v>1168094.4654751865</v>
+      </c>
+      <c r="AI24" s="60">
+        <v>-0.07975801491302308</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Japan</t>
+          <t xml:space="preserve">Kazakhstan</t>
         </is>
       </c>
       <c t="n" r="B25" s="64">
-        <v>1269901.0346811863</v>
+        <v>386682.7901058637</v>
       </c>
       <c t="n" r="C25" s="64">
-        <v>1269901.0346811863</v>
+        <v>386682.7901058637</v>
       </c>
       <c t="n" r="D25" s="64">
-        <v>1284360.8463660353</v>
+        <v>374535.9769265712</v>
       </c>
       <c t="n" r="E25" s="64">
-        <v>1296213.0074775415</v>
+        <v>351663.68495812226</v>
       </c>
       <c t="n" r="F25" s="64">
-        <v>1292021.17787205</v>
+        <v>318608.870353116</v>
       </c>
       <c t="n" r="G25" s="64">
-        <v>1353190.9174446044</v>
+        <v>273342.82025725004</v>
       </c>
       <c t="n" r="H25" s="64">
-        <v>1374714.9012940412</v>
+        <v>260567.6930868087</v>
       </c>
       <c t="n" r="I25" s="64">
-        <v>1387772.0063161582</v>
+        <v>247873.00772239364</v>
       </c>
       <c t="n" r="J25" s="64">
-        <v>1379898.4800101959</v>
+        <v>244367.63909910127</v>
       </c>
       <c t="n" r="K25" s="64">
-        <v>1331447.7621014249</v>
+        <v>252975.04294701078</v>
       </c>
       <c t="n" r="L25" s="64">
-        <v>1354848.9311389092</v>
+        <v>224661.18113247617</v>
       </c>
       <c t="n" r="M25" s="64">
-        <v>1374626.4208776127</v>
+        <v>260434.1235566549</v>
       </c>
       <c t="n" r="N25" s="64">
-        <v>1348960.2079156174</v>
+        <v>247386.5071535226</v>
       </c>
       <c t="n" r="O25" s="64">
-        <v>1372841.4788803698</v>
+        <v>263995.3710842155</v>
       </c>
       <c t="n" r="P25" s="64">
-        <v>1379554.9971912135</v>
+        <v>278029.5220314027</v>
       </c>
       <c t="n" r="Q25" s="64">
-        <v>1370990.9414002956</v>
+        <v>282922.7734308322</v>
       </c>
       <c t="n" r="R25" s="64">
-        <v>1378746.6953959214</v>
+        <v>287466.3916136871</v>
       </c>
       <c t="n" r="S25" s="64">
-        <v>1357463.4890314185</v>
+        <v>301694.78803067043</v>
       </c>
       <c t="n" r="T25" s="64">
-        <v>1392763.0333382983</v>
+        <v>303873.67772092455</v>
       </c>
       <c t="n" r="U25" s="64">
-        <v>1319987.8890293792</v>
+        <v>300707.91730026674</v>
       </c>
       <c t="n" r="V25" s="64">
-        <v>1247885.8834502965</v>
+        <v>294889.25849935657</v>
       </c>
       <c t="n" r="W25" s="64">
-        <v>1301405.8994876887</v>
+        <v>315855.5060059266</v>
       </c>
       <c t="n" r="X25" s="64">
-        <v>1352174.8944809202</v>
+        <v>306112.2693871929</v>
       </c>
       <c t="n" r="Y25" s="64">
-        <v>1394952.4834938315</v>
+        <v>311685.5655014733</v>
       </c>
       <c t="n" r="Z25" s="64">
-        <v>1406811.1752404564</v>
+        <v>320869.53837469226</v>
       </c>
       <c t="n" r="AA25" s="64">
-        <v>1357949.7663528733</v>
+        <v>342321.12168142496</v>
       </c>
       <c t="n" r="AB25" s="64">
-        <v>1319410.6406385093</v>
+        <v>346827.10852182034</v>
       </c>
       <c t="n" r="AC25" s="64">
-        <v>1302713.832808619</v>
+        <v>346787.34411029285</v>
       </c>
       <c t="n" r="AD25" s="64">
-        <v>1289434.1169003716</v>
+        <v>366656.7977565419</v>
       </c>
       <c t="n" r="AE25" s="64">
-        <v>1245542.0842426918</v>
+        <v>383836.56549006165</v>
       </c>
       <c t="n" r="AF25" s="64">
-        <v>1210159.6199421266</v>
+        <v>352690.65361500403</v>
       </c>
       <c t="n" r="AG25" s="64">
-        <v>1148122.0798062875</v>
-      </c>
-      <c r="AH25" s="60">
-        <v>-0.09589641361735866</v>
+        <v>333970.9616971519</v>
+      </c>
+      <c t="n" r="AH25" s="64">
+        <v>338123.3577799198</v>
+      </c>
+      <c r="AI25" s="60">
+        <v>-0.12557950229088186</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Kazakhstan</t>
+          <t xml:space="preserve">Latvia</t>
         </is>
       </c>
       <c t="n" r="B26" s="64">
-        <v>385602.99715756706</v>
+        <v>26022.704396020403</v>
       </c>
       <c t="n" r="C26" s="64">
-        <v>385602.99715756706</v>
+        <v>26022.704396020403</v>
       </c>
       <c t="n" r="D26" s="64">
-        <v>370312.18885787466</v>
+        <v>24132.741936183695</v>
       </c>
       <c t="n" r="E26" s="64">
-        <v>343622.4410790171</v>
+        <v>19362.024800664214</v>
       </c>
       <c t="n" r="F26" s="64">
-        <v>307947.5514708165</v>
+        <v>15905.348128622889</v>
       </c>
       <c t="n" r="G26" s="64">
-        <v>260513.3921967918</v>
+        <v>13958.296295764272</v>
       </c>
       <c t="n" r="H26" s="64">
-        <v>243208.55602524045</v>
+        <v>12589.831865927823</v>
       </c>
       <c t="n" r="I26" s="64">
-        <v>224969.2229203003</v>
+        <v>12639.333679928295</v>
       </c>
       <c t="n" r="J26" s="64">
-        <v>217101.21462169944</v>
+        <v>12080.471450513858</v>
       </c>
       <c t="n" r="K26" s="64">
-        <v>213081.1514713765</v>
+        <v>11576.365290925673</v>
       </c>
       <c t="n" r="L26" s="64">
-        <v>186720.04155091976</v>
+        <v>10790.397956794071</v>
       </c>
       <c t="n" r="M26" s="64">
-        <v>216188.9395964976</v>
+        <v>10167.782099937045</v>
       </c>
       <c t="n" r="N26" s="64">
-        <v>210091.4503363294</v>
+        <v>10760.02518239839</v>
       </c>
       <c t="n" r="O26" s="64">
-        <v>232445.2479007863</v>
+        <v>10727.985608653053</v>
       </c>
       <c t="n" r="P26" s="64">
-        <v>253923.8529027006</v>
+        <v>10921.156978836134</v>
       </c>
       <c t="n" r="Q26" s="64">
-        <v>260480.82057163067</v>
+        <v>10862.712200253758</v>
       </c>
       <c t="n" r="R26" s="64">
-        <v>273972.9595819544</v>
+        <v>11020.37390691979</v>
       </c>
       <c t="n" r="S26" s="64">
-        <v>291446.78554550884</v>
+        <v>11489.430337418002</v>
       </c>
       <c t="n" r="T26" s="64">
-        <v>293349.2213813824</v>
+        <v>11935.99426257141</v>
       </c>
       <c t="n" r="U26" s="64">
-        <v>288543.79866797896</v>
+        <v>11475.378329790523</v>
       </c>
       <c t="n" r="V26" s="64">
-        <v>276719.49816050363</v>
+        <v>10790.555344478647</v>
       </c>
       <c t="n" r="W26" s="64">
-        <v>300827.0017090912</v>
+        <v>11857.883416261817</v>
       </c>
       <c t="n" r="X26" s="64">
-        <v>290780.9284315233</v>
+        <v>11066.320512611606</v>
       </c>
       <c t="n" r="Y26" s="64">
-        <v>295683.6614497457</v>
+        <v>10884.333414689954</v>
       </c>
       <c t="n" r="Z26" s="64">
-        <v>303671.2884935956</v>
+        <v>10800.425143197619</v>
       </c>
       <c t="n" r="AA26" s="64">
-        <v>351476.3158827454</v>
+        <v>10712.576490503134</v>
       </c>
       <c t="n" r="AB26" s="64">
-        <v>355832.86571507034</v>
+        <v>10744.787196730089</v>
       </c>
       <c t="n" r="AC26" s="64">
-        <v>360910.21986908285</v>
+        <v>10742.113272578323</v>
       </c>
       <c t="n" r="AD26" s="64">
-        <v>379435.88894909143</v>
+        <v>10776.09871887958</v>
       </c>
       <c t="n" r="AE26" s="64">
-        <v>392754.7527637322</v>
+        <v>11272.33036720064</v>
       </c>
       <c t="n" r="AF26" s="64">
-        <v>359628.2528066367</v>
+        <v>11131.86516411437</v>
       </c>
       <c t="n" r="AG26" s="64">
-        <v>342868.7882809225</v>
-      </c>
-      <c r="AH26" s="60">
-        <v>-0.11082436908337173</v>
+        <v>10483.142878618604</v>
+      </c>
+      <c t="n" r="AH26" s="64">
+        <v>10725.292025601862</v>
+      </c>
+      <c r="AI26" s="60">
+        <v>-0.587848677739964</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Latvia</t>
+          <t xml:space="preserve">Liechtenstein</t>
         </is>
       </c>
       <c t="n" r="B27" s="64">
-        <v>25868.251525693595</v>
+        <v>229.64478782480316</v>
       </c>
       <c t="n" r="C27" s="64">
-        <v>25868.251525693595</v>
+        <v>229.64478782480316</v>
       </c>
       <c t="n" r="D27" s="64">
-        <v>23972.53480562262</v>
+        <v>237.17331080336632</v>
       </c>
       <c t="n" r="E27" s="64">
-        <v>19199.879961518243</v>
+        <v>237.31776325039408</v>
       </c>
       <c t="n" r="F27" s="64">
-        <v>15782.963212690074</v>
+        <v>244.3527565886642</v>
       </c>
       <c t="n" r="G27" s="64">
-        <v>13831.485762162007</v>
+        <v>230.6802941487635</v>
       </c>
       <c t="n" r="H27" s="64">
-        <v>12448.475890200067</v>
+        <v>234.41317499573776</v>
       </c>
       <c t="n" r="I27" s="64">
-        <v>12503.060116787463</v>
+        <v>236.7333877128459</v>
       </c>
       <c t="n" r="J27" s="64">
-        <v>11949.359562130434</v>
+        <v>249.23518211339524</v>
       </c>
       <c t="n" r="K27" s="64">
-        <v>11451.021210744935</v>
+        <v>260.18178982477855</v>
       </c>
       <c t="n" r="L27" s="64">
-        <v>10674.574004966084</v>
+        <v>257.09371835695316</v>
       </c>
       <c t="n" r="M27" s="64">
-        <v>10059.775294654573</v>
+        <v>247.62966980743835</v>
       </c>
       <c t="n" r="N27" s="64">
-        <v>10646.929602820785</v>
+        <v>247.2615636280238</v>
       </c>
       <c t="n" r="O27" s="64">
-        <v>10617.169594249302</v>
+        <v>253.61273780067927</v>
       </c>
       <c t="n" r="P27" s="64">
-        <v>10789.254971457087</v>
+        <v>263.71327360629243</v>
       </c>
       <c t="n" r="Q27" s="64">
-        <v>10755.603995348323</v>
+        <v>263.9525261729152</v>
       </c>
       <c t="n" r="R27" s="64">
-        <v>10927.87168652455</v>
+        <v>264.52260266260606</v>
       </c>
       <c t="n" r="S27" s="64">
-        <v>11409.544933085643</v>
+        <v>268.16701123586546</v>
       </c>
       <c t="n" r="T27" s="64">
-        <v>11854.583152321595</v>
+        <v>238.94330492055843</v>
       </c>
       <c t="n" r="U27" s="64">
-        <v>11403.398957685262</v>
+        <v>258.60349763773337</v>
       </c>
       <c t="n" r="V27" s="64">
-        <v>10715.256719438177</v>
+        <v>243.80390969915055</v>
       </c>
       <c t="n" r="W27" s="64">
-        <v>11801.930621325748</v>
+        <v>228.8285446339444</v>
       </c>
       <c t="n" r="X27" s="64">
-        <v>11010.679007906892</v>
+        <v>215.9392304688197</v>
       </c>
       <c t="n" r="Y27" s="64">
-        <v>10830.483965459814</v>
+        <v>225.15229224656875</v>
       </c>
       <c t="n" r="Z27" s="64">
-        <v>10742.253035481865</v>
+        <v>231.30599187428072</v>
       </c>
       <c t="n" r="AA27" s="64">
-        <v>10647.80442108718</v>
+        <v>200.25370974802647</v>
       </c>
       <c t="n" r="AB27" s="64">
-        <v>10703.357989597045</v>
+        <v>198.63585144632444</v>
       </c>
       <c t="n" r="AC27" s="64">
-        <v>10693.31138055408</v>
+        <v>188.30678035555377</v>
       </c>
       <c t="n" r="AD27" s="64">
-        <v>10733.277961819973</v>
+        <v>193.91466448794367</v>
       </c>
       <c t="n" r="AE27" s="64">
-        <v>11235.03961830862</v>
+        <v>181.70970584009063</v>
       </c>
       <c t="n" r="AF27" s="64">
-        <v>11103.625380564976</v>
+        <v>188.32273961149085</v>
       </c>
       <c t="n" r="AG27" s="64">
-        <v>10446.625557302343</v>
-      </c>
-      <c r="AH27" s="60">
-        <v>-0.596160353283783</v>
+        <v>180.87137600695027</v>
+      </c>
+      <c t="n" r="AH27" s="64">
+        <v>183.90422087040267</v>
+      </c>
+      <c r="AI27" s="60">
+        <v>-0.19917964342955666</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Liechtenstein</t>
+          <t xml:space="preserve">Lithuania</t>
         </is>
       </c>
       <c t="n" r="B28" s="64">
-        <v>228.4746535423151</v>
+        <v>48134.542506901955</v>
       </c>
       <c t="n" r="C28" s="64">
-        <v>228.4746535423151</v>
+        <v>48134.542506901955</v>
       </c>
       <c t="n" r="D28" s="64">
-        <v>236.04346918340863</v>
+        <v>50100.69254161651</v>
       </c>
       <c t="n" r="E28" s="64">
-        <v>236.24250095956833</v>
+        <v>31026.927096582458</v>
       </c>
       <c t="n" r="F28" s="64">
-        <v>243.36561788282992</v>
+        <v>24901.782962507892</v>
       </c>
       <c t="n" r="G28" s="64">
-        <v>229.72108219284857</v>
+        <v>23515.737162317047</v>
       </c>
       <c t="n" r="H28" s="64">
-        <v>233.53956220044296</v>
+        <v>22486.03981264215</v>
       </c>
       <c t="n" r="I28" s="64">
-        <v>235.84949869759717</v>
+        <v>23469.120159018446</v>
       </c>
       <c t="n" r="J28" s="64">
-        <v>248.42483431417463</v>
+        <v>23021.510413601478</v>
       </c>
       <c t="n" r="K28" s="64">
-        <v>259.38249927386147</v>
+        <v>23912.69360081668</v>
       </c>
       <c t="n" r="L28" s="64">
-        <v>256.3828803730652</v>
+        <v>21098.26346738697</v>
       </c>
       <c t="n" r="M28" s="64">
-        <v>247.0067371139626</v>
+        <v>19493.645805754175</v>
       </c>
       <c t="n" r="N28" s="64">
-        <v>246.56935431166391</v>
+        <v>20266.178078015077</v>
       </c>
       <c t="n" r="O28" s="64">
-        <v>252.88184028154996</v>
+        <v>20626.06968713524</v>
       </c>
       <c t="n" r="P28" s="64">
-        <v>263.00601226066095</v>
+        <v>20792.92724447683</v>
       </c>
       <c t="n" r="Q28" s="64">
-        <v>263.22728369477255</v>
+        <v>21592.717842295846</v>
       </c>
       <c t="n" r="R28" s="64">
-        <v>263.6397758480815</v>
+        <v>22439.798665136645</v>
       </c>
       <c t="n" r="S28" s="64">
-        <v>267.2448557068286</v>
+        <v>22756.099406842917</v>
       </c>
       <c t="n" r="T28" s="64">
-        <v>238.05370686716773</v>
+        <v>24730.03128987978</v>
       </c>
       <c t="n" r="U28" s="64">
-        <v>257.8292618339797</v>
+        <v>23832.423963635152</v>
       </c>
       <c t="n" r="V28" s="64">
-        <v>243.1014512045273</v>
+        <v>19826.129197579397</v>
       </c>
       <c t="n" r="W28" s="64">
-        <v>228.16644015102275</v>
+        <v>20741.77031725058</v>
       </c>
       <c t="n" r="X28" s="64">
-        <v>215.3226310807436</v>
+        <v>21104.52440263251</v>
       </c>
       <c t="n" r="Y28" s="64">
-        <v>224.508580749935</v>
+        <v>21085.975555367117</v>
       </c>
       <c t="n" r="Z28" s="64">
-        <v>230.72973629845865</v>
+        <v>19954.614737085</v>
       </c>
       <c t="n" r="AA28" s="64">
-        <v>199.72688819139088</v>
+        <v>19857.26429463502</v>
       </c>
       <c t="n" r="AB28" s="64">
-        <v>198.14647467886007</v>
+        <v>20155.05583452764</v>
       </c>
       <c t="n" r="AC28" s="64">
-        <v>187.75763968149175</v>
+        <v>20220.166653829147</v>
       </c>
       <c t="n" r="AD28" s="64">
-        <v>193.4569560193061</v>
+        <v>20344.84902160191</v>
       </c>
       <c t="n" r="AE28" s="64">
-        <v>181.27268426341072</v>
+        <v>20013.48327354904</v>
       </c>
       <c t="n" r="AF28" s="64">
-        <v>187.67345843529273</v>
+        <v>20244.63821295296</v>
       </c>
       <c t="n" r="AG28" s="64">
-        <v>179.65883863169913</v>
-      </c>
-      <c r="AH28" s="60">
-        <v>-0.21365965175465274</v>
+        <v>20165.726378879503</v>
+      </c>
+      <c t="n" r="AH28" s="64">
+        <v>20251.511248082392</v>
+      </c>
+      <c r="AI28" s="60">
+        <v>-0.5792728009167523</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Lithuania</t>
+          <t xml:space="preserve">Luxembourg</t>
         </is>
       </c>
       <c t="n" r="B29" s="64">
-        <v>47860.896473735535</v>
+        <v>12722.411900992522</v>
       </c>
       <c t="n" r="C29" s="64">
-        <v>47860.896473735535</v>
+        <v>12722.411900992522</v>
       </c>
       <c t="n" r="D29" s="64">
-        <v>49843.94414509686</v>
+        <v>13353.27727225802</v>
       </c>
       <c t="n" r="E29" s="64">
-        <v>30664.541322347693</v>
+        <v>13118.287067121904</v>
       </c>
       <c t="n" r="F29" s="64">
-        <v>24586.68042791977</v>
+        <v>13281.349880462822</v>
       </c>
       <c t="n" r="G29" s="64">
-        <v>23219.927253849688</v>
+        <v>12447.630378654638</v>
       </c>
       <c t="n" r="H29" s="64">
-        <v>22233.48901400371</v>
+        <v>10078.52389703484</v>
       </c>
       <c t="n" r="I29" s="64">
-        <v>23276.5039655815</v>
+        <v>10141.467770268542</v>
       </c>
       <c t="n" r="J29" s="64">
-        <v>22840.9172519887</v>
+        <v>9494.70277697541</v>
       </c>
       <c t="n" r="K29" s="64">
-        <v>23804.51136507346</v>
+        <v>8590.875716497438</v>
       </c>
       <c t="n" r="L29" s="64">
-        <v>20987.276104622688</v>
+        <v>9051.266283462737</v>
       </c>
       <c t="n" r="M29" s="64">
-        <v>19441.006557247318</v>
+        <v>9634.99570256038</v>
       </c>
       <c t="n" r="N29" s="64">
-        <v>20243.164178565883</v>
+        <v>10137.261301471644</v>
       </c>
       <c t="n" r="O29" s="64">
-        <v>20622.26091059743</v>
+        <v>10915.324378728172</v>
       </c>
       <c t="n" r="P29" s="64">
-        <v>20789.53061142788</v>
+        <v>11366.756732655662</v>
       </c>
       <c t="n" r="Q29" s="64">
-        <v>21608.680815936998</v>
+        <v>12740.933020019325</v>
       </c>
       <c t="n" r="R29" s="64">
-        <v>22714.413707326923</v>
+        <v>12993.834077713707</v>
       </c>
       <c t="n" r="S29" s="64">
-        <v>23003.84723404739</v>
+        <v>12824.482917364465</v>
       </c>
       <c t="n" r="T29" s="64">
-        <v>25182.36124551715</v>
+        <v>12236.272062963473</v>
       </c>
       <c t="n" r="U29" s="64">
-        <v>24203.763111980457</v>
+        <v>12126.208266029109</v>
       </c>
       <c t="n" r="V29" s="64">
-        <v>19911.50633696785</v>
+        <v>11584.163432957486</v>
       </c>
       <c t="n" r="W29" s="64">
-        <v>20750.15654710588</v>
+        <v>12159.04505908896</v>
       </c>
       <c t="n" r="X29" s="64">
-        <v>21343.21983068471</v>
+        <v>12040.480313314143</v>
       </c>
       <c t="n" r="Y29" s="64">
-        <v>21266.732667747634</v>
+        <v>11804.174421026077</v>
       </c>
       <c t="n" r="Z29" s="64">
-        <v>20026.917892105153</v>
+        <v>11281.310545947399</v>
       </c>
       <c t="n" r="AA29" s="64">
-        <v>19995.695941746308</v>
+        <v>10785.435987565776</v>
       </c>
       <c t="n" r="AB29" s="64">
-        <v>20303.88937339596</v>
+        <v>10313.874921899316</v>
       </c>
       <c t="n" r="AC29" s="64">
-        <v>20326.57931176989</v>
+        <v>10077.823419039834</v>
       </c>
       <c t="n" r="AD29" s="64">
-        <v>20528.905695840767</v>
+        <v>10259.73623749713</v>
       </c>
       <c t="n" r="AE29" s="64">
-        <v>20159.0200464906</v>
+        <v>10563.27585419481</v>
       </c>
       <c t="n" r="AF29" s="64">
-        <v>20360.592302150624</v>
+        <v>10739.992950746411</v>
       </c>
       <c t="n" r="AG29" s="64">
-        <v>20182.553600231993</v>
-      </c>
-      <c r="AH29" s="60">
-        <v>-0.578308074289676</v>
+        <v>9029.899171868388</v>
+      </c>
+      <c t="n" r="AH29" s="64">
+        <v>9390.729934326806</v>
+      </c>
+      <c r="AI29" s="60">
+        <v>-0.2618750275178403</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Luxembourg</t>
+          <t xml:space="preserve">Malta</t>
         </is>
       </c>
       <c t="n" r="B30" s="64">
-        <v>12732.993275896932</v>
+        <v>2626.4307770354376</v>
       </c>
       <c t="n" r="C30" s="64">
-        <v>12732.993275896932</v>
+        <v>2626.4307770354376</v>
       </c>
       <c t="n" r="D30" s="64">
-        <v>13373.874089073639</v>
+        <v>2480.068420860158</v>
       </c>
       <c t="n" r="E30" s="64">
-        <v>13143.840529418732</v>
+        <v>2513.1065183816922</v>
       </c>
       <c t="n" r="F30" s="64">
-        <v>13299.43794382692</v>
+        <v>3115.8056708815993</v>
       </c>
       <c t="n" r="G30" s="64">
-        <v>12464.684567067497</v>
+        <v>2894.1337895176575</v>
       </c>
       <c t="n" r="H30" s="64">
-        <v>10090.9330865121</v>
+        <v>2691.0636810694577</v>
       </c>
       <c t="n" r="I30" s="64">
-        <v>10152.122672325775</v>
+        <v>2781.8055922104445</v>
       </c>
       <c t="n" r="J30" s="64">
-        <v>9501.800758884172</v>
+        <v>2813.4887363305297</v>
       </c>
       <c t="n" r="K30" s="64">
-        <v>8620.15754590468</v>
+        <v>2787.664653642264</v>
       </c>
       <c t="n" r="L30" s="64">
-        <v>9084.314131519</v>
+        <v>2845.1082166350966</v>
       </c>
       <c t="n" r="M30" s="64">
-        <v>9664.5327932482</v>
+        <v>2749.7144533475416</v>
       </c>
       <c t="n" r="N30" s="64">
-        <v>10155.146722812613</v>
+        <v>3025.9873980698676</v>
       </c>
       <c t="n" r="O30" s="64">
-        <v>10931.660433558513</v>
+        <v>3046.791927458501</v>
       </c>
       <c t="n" r="P30" s="64">
-        <v>11376.974000461314</v>
+        <v>3269.0413290963897</v>
       </c>
       <c t="n" r="Q30" s="64">
-        <v>12763.413085198785</v>
+        <v>3176.0818270672257</v>
       </c>
       <c t="n" r="R30" s="64">
-        <v>13006.610742328683</v>
+        <v>2997.6630236384312</v>
       </c>
       <c t="n" r="S30" s="64">
-        <v>12838.250243142174</v>
+        <v>3052.2351119804043</v>
       </c>
       <c t="n" r="T30" s="64">
-        <v>12255.96986248903</v>
+        <v>3139.8280892689845</v>
       </c>
       <c t="n" r="U30" s="64">
-        <v>12143.354963967015</v>
+        <v>3019.888170009375</v>
       </c>
       <c t="n" r="V30" s="64">
-        <v>11597.331014700767</v>
+        <v>2885.2616509401764</v>
       </c>
       <c t="n" r="W30" s="64">
-        <v>12168.52840196589</v>
+        <v>2962.3300859593623</v>
       </c>
       <c t="n" r="X30" s="64">
-        <v>12052.276258577684</v>
+        <v>2961.0563981129276</v>
       </c>
       <c t="n" r="Y30" s="64">
-        <v>11809.919134582009</v>
+        <v>3126.27085874142</v>
       </c>
       <c t="n" r="Z30" s="64">
-        <v>11276.748633920768</v>
+        <v>2799.150228795701</v>
       </c>
       <c t="n" r="AA30" s="64">
-        <v>10797.42976592068</v>
+        <v>2807.205756025197</v>
       </c>
       <c t="n" r="AB30" s="64">
-        <v>10317.721234568407</v>
+        <v>2129.1623104137907</v>
       </c>
       <c t="n" r="AC30" s="64">
-        <v>10078.734056711524</v>
+        <v>1846.9604668368427</v>
       </c>
       <c t="n" r="AD30" s="64">
-        <v>10261.751315950069</v>
+        <v>2028.3822211792724</v>
       </c>
       <c t="n" r="AE30" s="64">
-        <v>10561.466225152622</v>
+        <v>2037.803103238901</v>
       </c>
       <c t="n" r="AF30" s="64">
-        <v>10732.70072726924</v>
+        <v>2149.9256585732455</v>
       </c>
       <c t="n" r="AG30" s="64">
-        <v>9064.902098817494</v>
-      </c>
-      <c r="AH30" s="60">
-        <v>-0.28807768115475196</v>
+        <v>2111.859116755312</v>
+      </c>
+      <c t="n" r="AH30" s="64">
+        <v>2133.618736826443</v>
+      </c>
+      <c r="AI30" s="60">
+        <v>-0.187635647784044</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Malta</t>
+          <t xml:space="preserve">Monaco</t>
         </is>
       </c>
       <c t="n" r="B31" s="64">
-        <v>2599.282503718444</v>
+        <v>102.45956193710488</v>
       </c>
       <c t="n" r="C31" s="64">
-        <v>2599.282503718444</v>
+        <v>102.45956193710488</v>
       </c>
       <c t="n" r="D31" s="64">
-        <v>2452.203958556683</v>
+        <v>103.31195962316293</v>
       </c>
       <c t="n" r="E31" s="64">
-        <v>2517.179108350123</v>
+        <v>108.9565253525366</v>
       </c>
       <c t="n" r="F31" s="64">
-        <v>3105.259578260399</v>
+        <v>108.10795789045328</v>
       </c>
       <c t="n" r="G31" s="64">
-        <v>2886.544214053886</v>
+        <v>108.80269706078336</v>
       </c>
       <c t="n" r="H31" s="64">
-        <v>2682.409803612641</v>
+        <v>105.43663826169421</v>
       </c>
       <c t="n" r="I31" s="64">
-        <v>2801.453728884119</v>
+        <v>109.22933201914007</v>
       </c>
       <c t="n" r="J31" s="64">
-        <v>2815.944292273614</v>
+        <v>107.85287602133448</v>
       </c>
       <c t="n" r="K31" s="64">
-        <v>2778.4482652404963</v>
+        <v>106.94753076310948</v>
       </c>
       <c t="n" r="L31" s="64">
-        <v>2863.793682321378</v>
+        <v>108.15662366627733</v>
       </c>
       <c t="n" r="M31" s="64">
-        <v>2789.716182686854</v>
+        <v>106.28890195994332</v>
       </c>
       <c t="n" r="N31" s="64">
-        <v>2936.198343361508</v>
+        <v>106.73047016181856</v>
       </c>
       <c t="n" r="O31" s="64">
-        <v>2986.056710459252</v>
+        <v>107.10508779240703</v>
       </c>
       <c t="n" r="P31" s="64">
-        <v>3265.4889172716134</v>
+        <v>104.08770255588276</v>
       </c>
       <c t="n" r="Q31" s="64">
-        <v>3143.8961124992447</v>
+        <v>98.85623310902243</v>
       </c>
       <c t="n" r="R31" s="64">
-        <v>2980.535602455879</v>
+        <v>97.74010053227067</v>
       </c>
       <c t="n" r="S31" s="64">
-        <v>3041.206818836363</v>
+        <v>93.30133432493648</v>
       </c>
       <c t="n" r="T31" s="64">
-        <v>3133.51597910571</v>
+        <v>93.12224001746796</v>
       </c>
       <c t="n" r="U31" s="64">
-        <v>3071.8435558426427</v>
+        <v>93.8011319780268</v>
       </c>
       <c t="n" r="V31" s="64">
-        <v>2887.8780080106458</v>
+        <v>90.14597456326112</v>
       </c>
       <c t="n" r="W31" s="64">
-        <v>2944.942986804488</v>
+        <v>87.75892090907215</v>
       </c>
       <c t="n" r="X31" s="64">
-        <v>2949.954716549381</v>
+        <v>86.29697023816473</v>
       </c>
       <c t="n" r="Y31" s="64">
-        <v>3132.3941798676365</v>
+        <v>89.13413754002048</v>
       </c>
       <c t="n" r="Z31" s="64">
-        <v>2795.1561273256343</v>
+        <v>91.12665737649576</v>
       </c>
       <c t="n" r="AA31" s="64">
-        <v>2800.6575373224655</v>
+        <v>85.19760474078656</v>
       </c>
       <c t="n" r="AB31" s="64">
-        <v>2122.948456522498</v>
+        <v>88.21331010966603</v>
       </c>
       <c t="n" r="AC31" s="64">
-        <v>1835.780602895644</v>
+        <v>86.42891011081004</v>
       </c>
       <c t="n" r="AD31" s="64">
-        <v>2018.049933018448</v>
+        <v>83.33283988906781</v>
       </c>
       <c t="n" r="AE31" s="64">
-        <v>2030.0136351553888</v>
+        <v>86.66759096113051</v>
       </c>
       <c t="n" r="AF31" s="64">
-        <v>2131.763169102392</v>
+        <v>83.0093129268974</v>
       </c>
       <c t="n" r="AG31" s="64">
-        <v>2121.5896231192337</v>
-      </c>
-      <c r="AH31" s="60">
-        <v>-0.1837787466025102</v>
+        <v>69.76156958190525</v>
+      </c>
+      <c t="n" r="AH31" s="64">
+        <v>73.63276189518574</v>
+      </c>
+      <c r="AI31" s="60">
+        <v>-0.28134807036960163</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Monaco</t>
+          <t xml:space="preserve">Netherlands</t>
         </is>
       </c>
       <c t="n" r="B32" s="64">
-        <v>102.73931433804547</v>
+        <v>221781.03541224226</v>
       </c>
       <c t="n" r="C32" s="64">
-        <v>102.73931433804547</v>
+        <v>221781.03541224226</v>
       </c>
       <c t="n" r="D32" s="64">
-        <v>103.59711432302493</v>
+        <v>229711.98854328477</v>
       </c>
       <c t="n" r="E32" s="64">
-        <v>109.23935967127788</v>
+        <v>230151.10415331938</v>
       </c>
       <c t="n" r="F32" s="64">
-        <v>108.38613475340355</v>
+        <v>230464.25338690114</v>
       </c>
       <c t="n" r="G32" s="64">
-        <v>109.08338903708936</v>
+        <v>231199.85703721718</v>
       </c>
       <c t="n" r="H32" s="64">
-        <v>105.72288670955533</v>
+        <v>231305.56967909852</v>
       </c>
       <c t="n" r="I32" s="64">
-        <v>109.52661768820498</v>
+        <v>241662.0940571475</v>
       </c>
       <c t="n" r="J32" s="64">
-        <v>108.14237393904727</v>
+        <v>233328.50096337474</v>
       </c>
       <c t="n" r="K32" s="64">
-        <v>107.27738004599765</v>
+        <v>233540.15742961052</v>
       </c>
       <c t="n" r="L32" s="64">
-        <v>108.44440678842578</v>
+        <v>221071.11572631027</v>
       </c>
       <c t="n" r="M32" s="64">
-        <v>106.5599829518432</v>
+        <v>219454.92026075677</v>
       </c>
       <c t="n" r="N32" s="64">
-        <v>106.98425198657216</v>
+        <v>220583.20300419998</v>
       </c>
       <c t="n" r="O32" s="64">
-        <v>107.28748682885852</v>
+        <v>218256.53478596828</v>
       </c>
       <c t="n" r="P32" s="64">
-        <v>104.424515431452</v>
+        <v>218993.8305642493</v>
       </c>
       <c t="n" r="Q32" s="64">
-        <v>99.17781473519064</v>
+        <v>220478.99897158434</v>
       </c>
       <c t="n" r="R32" s="64">
-        <v>97.92576789347872</v>
+        <v>214666.94782552935</v>
       </c>
       <c t="n" r="S32" s="64">
-        <v>93.54521625759166</v>
+        <v>209523.76449950036</v>
       </c>
       <c t="n" r="T32" s="64">
-        <v>93.3419522574012</v>
+        <v>208077.85325659637</v>
       </c>
       <c t="n" r="U32" s="64">
-        <v>94.0476653003966</v>
+        <v>207941.4098063994</v>
       </c>
       <c t="n" r="V32" s="64">
-        <v>90.280607098526</v>
+        <v>202300.72298412008</v>
       </c>
       <c t="n" r="W32" s="64">
-        <v>88.87547853181457</v>
+        <v>214236.6370088305</v>
       </c>
       <c t="n" r="X32" s="64">
-        <v>86.53661624365822</v>
+        <v>199922.92412411261</v>
       </c>
       <c t="n" r="Y32" s="64">
-        <v>89.16911432249628</v>
+        <v>195581.75150401675</v>
       </c>
       <c t="n" r="Z32" s="64">
-        <v>91.291176805483</v>
+        <v>195278.02167210914</v>
       </c>
       <c t="n" r="AA32" s="64">
-        <v>85.51839170805319</v>
+        <v>187053.5812381114</v>
       </c>
       <c t="n" r="AB32" s="64">
-        <v>88.43310714049326</v>
+        <v>194015.91383458447</v>
       </c>
       <c t="n" r="AC32" s="64">
-        <v>86.68134917913893</v>
+        <v>194644.48791894107</v>
       </c>
       <c t="n" r="AD32" s="64">
-        <v>83.60674695646708</v>
+        <v>191991.16557862575</v>
       </c>
       <c t="n" r="AE32" s="64">
-        <v>86.96756735578839</v>
+        <v>186759.63252777484</v>
       </c>
       <c t="n" r="AF32" s="64">
-        <v>83.29086015443403</v>
+        <v>180936.86507612508</v>
       </c>
       <c t="n" r="AG32" s="64">
-        <v>70.03645876591776</v>
-      </c>
-      <c r="AH32" s="60">
-        <v>-0.31830906973473444</v>
+        <v>164367.79321282788</v>
+      </c>
+      <c t="n" r="AH32" s="64">
+        <v>167153.2451103156</v>
+      </c>
+      <c r="AI32" s="60">
+        <v>-0.24631407370060113</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Netherlands</t>
+          <t xml:space="preserve">New Zealand</t>
         </is>
       </c>
       <c t="n" r="B33" s="64">
-        <v>219596.54131891803</v>
+        <v>64720.07144791342</v>
       </c>
       <c t="n" r="C33" s="64">
-        <v>219596.54131891803</v>
+        <v>64720.07144791342</v>
       </c>
       <c t="n" r="D33" s="64">
-        <v>227256.54801143002</v>
+        <v>65688.43175072184</v>
       </c>
       <c t="n" r="E33" s="64">
-        <v>227938.94377776218</v>
+        <v>66834.98229461636</v>
       </c>
       <c t="n" r="F33" s="64">
-        <v>228686.5337561335</v>
+        <v>66693.8261003733</v>
       </c>
       <c t="n" r="G33" s="64">
-        <v>229568.28866016582</v>
+        <v>67859.23208399184</v>
       </c>
       <c t="n" r="H33" s="64">
-        <v>229625.23771076076</v>
+        <v>68394.69624790785</v>
       </c>
       <c t="n" r="I33" s="64">
-        <v>240401.57963509546</v>
+        <v>70551.54180564669</v>
       </c>
       <c t="n" r="J33" s="64">
-        <v>232356.34231005982</v>
+        <v>73381.51697516453</v>
       </c>
       <c t="n" r="K33" s="64">
-        <v>232742.89710131442</v>
+        <v>71186.87249626702</v>
       </c>
       <c t="n" r="L33" s="64">
-        <v>219291.08843618393</v>
+        <v>72975.47198985044</v>
       </c>
       <c t="n" r="M33" s="64">
-        <v>217505.213960493</v>
+        <v>74850.4724680587</v>
       </c>
       <c t="n" r="N33" s="64">
-        <v>218195.27443161033</v>
+        <v>77755.79045087825</v>
       </c>
       <c t="n" r="O33" s="64">
-        <v>215996.86606446726</v>
+        <v>77682.44083978035</v>
       </c>
       <c t="n" r="P33" s="64">
-        <v>216641.13348788503</v>
+        <v>79827.39168317152</v>
       </c>
       <c t="n" r="Q33" s="64">
-        <v>218177.1446389216</v>
+        <v>79669.2417746139</v>
       </c>
       <c t="n" r="R33" s="64">
-        <v>212447.59119456072</v>
+        <v>81752.17601302592</v>
       </c>
       <c t="n" r="S33" s="64">
-        <v>207397.76539475183</v>
+        <v>81773.36222943006</v>
       </c>
       <c t="n" r="T33" s="64">
-        <v>205783.61963510464</v>
+        <v>79673.33248789106</v>
       </c>
       <c t="n" r="U33" s="64">
-        <v>205213.1014538698</v>
+        <v>79350.40306673915</v>
       </c>
       <c t="n" r="V33" s="64">
-        <v>199616.3923208865</v>
+        <v>76647.31037796491</v>
       </c>
       <c t="n" r="W33" s="64">
-        <v>211583.2329891438</v>
+        <v>77328.02269847886</v>
       </c>
       <c t="n" r="X33" s="64">
-        <v>197244.083328162</v>
+        <v>77106.14782953101</v>
       </c>
       <c t="n" r="Y33" s="64">
-        <v>193009.40293313793</v>
+        <v>79086.91351051153</v>
       </c>
       <c t="n" r="Z33" s="64">
-        <v>193342.4435401</v>
+        <v>78430.00613646781</v>
       </c>
       <c t="n" r="AA33" s="64">
-        <v>185548.9344490908</v>
+        <v>79212.62523132417</v>
       </c>
       <c t="n" r="AB33" s="64">
-        <v>192648.93144827668</v>
+        <v>79036.98895216832</v>
       </c>
       <c t="n" r="AC33" s="64">
-        <v>193058.3888254158</v>
+        <v>76930.22399174719</v>
       </c>
       <c t="n" r="AD33" s="64">
-        <v>190568.2376298847</v>
+        <v>78511.40044132048</v>
       </c>
       <c t="n" r="AE33" s="64">
-        <v>185596.90530002097</v>
+        <v>78776.3011892705</v>
       </c>
       <c t="n" r="AF33" s="64">
-        <v>179837.65281634158</v>
+        <v>79989.79346760592</v>
       </c>
       <c t="n" r="AG33" s="64">
-        <v>163915.1818733007</v>
-      </c>
-      <c r="AH33" s="60">
-        <v>-0.25356209670329827</v>
+        <v>77330.66086962972</v>
+      </c>
+      <c t="n" r="AH33" s="64">
+        <v>76824.58718178982</v>
+      </c>
+      <c r="AI33" s="60">
+        <v>0.18702877581984884</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">New Zealand</t>
+          <t xml:space="preserve">Norway</t>
         </is>
       </c>
       <c t="n" r="B34" s="64">
-        <v>65196.98063213224</v>
+        <v>50712.44625624105</v>
       </c>
       <c t="n" r="C34" s="64">
-        <v>65196.98063213224</v>
+        <v>50712.44625624105</v>
       </c>
       <c t="n" r="D34" s="64">
-        <v>66175.52674574775</v>
+        <v>48339.03937130077</v>
       </c>
       <c t="n" r="E34" s="64">
-        <v>67332.21363465225</v>
+        <v>46706.76713439362</v>
       </c>
       <c t="n" r="F34" s="64">
-        <v>67194.37364050256</v>
+        <v>48598.684719155804</v>
       </c>
       <c t="n" r="G34" s="64">
-        <v>68443.50054823289</v>
+        <v>50502.106538321656</v>
       </c>
       <c t="n" r="H34" s="64">
-        <v>69012.90660150164</v>
+        <v>50834.45940580235</v>
       </c>
       <c t="n" r="I34" s="64">
-        <v>71191.48552965821</v>
+        <v>53717.33923463687</v>
       </c>
       <c t="n" r="J34" s="64">
-        <v>74027.477663775</v>
+        <v>53693.41396520505</v>
       </c>
       <c t="n" r="K34" s="64">
-        <v>71822.35270420756</v>
+        <v>53765.44456828693</v>
       </c>
       <c t="n" r="L34" s="64">
-        <v>73576.26154672126</v>
+        <v>54741.37376152859</v>
       </c>
       <c t="n" r="M34" s="64">
-        <v>75515.1694634082</v>
+        <v>54074.158703216846</v>
       </c>
       <c t="n" r="N34" s="64">
-        <v>78503.95025240103</v>
+        <v>55298.617706134275</v>
       </c>
       <c t="n" r="O34" s="64">
-        <v>78594.90834218776</v>
+        <v>54172.912878059695</v>
       </c>
       <c t="n" r="P34" s="64">
-        <v>80784.30238884596</v>
+        <v>54947.55094564523</v>
       </c>
       <c t="n" r="Q34" s="64">
-        <v>80621.38325364301</v>
+        <v>55427.9768109441</v>
       </c>
       <c t="n" r="R34" s="64">
-        <v>82666.10320020471</v>
+        <v>54471.72346084516</v>
       </c>
       <c t="n" r="S34" s="64">
-        <v>82832.55248372548</v>
+        <v>54568.93701362508</v>
       </c>
       <c t="n" r="T34" s="64">
-        <v>80727.51645951445</v>
+        <v>56272.86622959303</v>
       </c>
       <c t="n" r="U34" s="64">
-        <v>80494.16127686964</v>
+        <v>54881.82108165181</v>
       </c>
       <c t="n" r="V34" s="64">
-        <v>77834.61235817992</v>
+        <v>52541.05943398074</v>
       </c>
       <c t="n" r="W34" s="64">
-        <v>78426.31679879446</v>
+        <v>54925.060771387005</v>
       </c>
       <c t="n" r="X34" s="64">
-        <v>78290.27941775921</v>
+        <v>53999.14698098809</v>
       </c>
       <c t="n" r="Y34" s="64">
-        <v>80482.57150279725</v>
+        <v>53380.66656169262</v>
       </c>
       <c t="n" r="Z34" s="64">
-        <v>79805.65500405038</v>
+        <v>53615.08381411749</v>
       </c>
       <c t="n" r="AA34" s="64">
-        <v>80618.39751199316</v>
+        <v>53906.69641385761</v>
       </c>
       <c t="n" r="AB34" s="64">
-        <v>80450.06463636331</v>
+        <v>54362.816318011784</v>
       </c>
       <c t="n" r="AC34" s="64">
-        <v>78391.48429224556</v>
+        <v>53447.034810093886</v>
       </c>
       <c t="n" r="AD34" s="64">
-        <v>79889.59418533166</v>
+        <v>52678.81448687588</v>
       </c>
       <c t="n" r="AE34" s="64">
-        <v>80079.58165817436</v>
+        <v>52702.968847391654</v>
       </c>
       <c t="n" r="AF34" s="64">
-        <v>81617.05835204544</v>
+        <v>50958.21851942659</v>
       </c>
       <c t="n" r="AG34" s="64">
-        <v>78778.3660244794</v>
-      </c>
-      <c r="AH34" s="60">
-        <v>0.2083131037766739</v>
+        <v>49214.63539933913</v>
+      </c>
+      <c t="n" r="AH34" s="64">
+        <v>48901.955332261285</v>
+      </c>
+      <c r="AI34" s="60">
+        <v>-0.035701115951529375</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Norway</t>
+          <t xml:space="preserve">Poland</t>
         </is>
       </c>
       <c t="n" r="B35" s="64">
-        <v>51431.79118650436</v>
+        <v>577664.96373428</v>
       </c>
       <c t="n" r="C35" s="64">
-        <v>51431.79118650436</v>
+        <v>474554.322342134</v>
       </c>
       <c t="n" r="D35" s="64">
-        <v>49025.04693037642</v>
+        <v>463180.0415364882</v>
       </c>
       <c t="n" r="E35" s="64">
-        <v>47367.61138490669</v>
+        <v>450856.6356479532</v>
       </c>
       <c t="n" r="F35" s="64">
-        <v>49331.79093200692</v>
+        <v>450937.3423827361</v>
       </c>
       <c t="n" r="G35" s="64">
-        <v>51236.0514480018</v>
+        <v>444827.53276648704</v>
       </c>
       <c t="n" r="H35" s="64">
-        <v>51631.42406469794</v>
+        <v>446731.8733767602</v>
       </c>
       <c t="n" r="I35" s="64">
-        <v>54511.42904624723</v>
+        <v>460383.54000717856</v>
       </c>
       <c t="n" r="J35" s="64">
-        <v>54533.099058694526</v>
+        <v>450012.32800735225</v>
       </c>
       <c t="n" r="K35" s="64">
-        <v>54560.8226592699</v>
+        <v>419389.768318886</v>
       </c>
       <c t="n" r="L35" s="64">
-        <v>55582.86440960914</v>
+        <v>407531.7971237807</v>
       </c>
       <c t="n" r="M35" s="64">
-        <v>54922.380814528915</v>
+        <v>393992.72743607697</v>
       </c>
       <c t="n" r="N35" s="64">
-        <v>56192.66023340527</v>
+        <v>392522.96882508113</v>
       </c>
       <c t="n" r="O35" s="64">
-        <v>55009.78033542577</v>
+        <v>382301.8169912502</v>
       </c>
       <c t="n" r="P35" s="64">
-        <v>55613.21438054821</v>
+        <v>395538.579156532</v>
       </c>
       <c t="n" r="Q35" s="64">
-        <v>56013.998337560464</v>
+        <v>400799.4287063374</v>
       </c>
       <c t="n" r="R35" s="64">
-        <v>54945.19334025593</v>
+        <v>400708.6889875957</v>
       </c>
       <c t="n" r="S35" s="64">
-        <v>54933.79118924538</v>
+        <v>415341.2988538061</v>
       </c>
       <c t="n" r="T35" s="64">
-        <v>56604.90944089912</v>
+        <v>414652.8292932808</v>
       </c>
       <c t="n" r="U35" s="64">
-        <v>55131.03127891552</v>
+        <v>407857.17853880854</v>
       </c>
       <c t="n" r="V35" s="64">
-        <v>52672.108535550484</v>
+        <v>389826.81635801285</v>
       </c>
       <c t="n" r="W35" s="64">
-        <v>54938.6740950509</v>
+        <v>407236.96078142466</v>
       </c>
       <c t="n" r="X35" s="64">
-        <v>53990.81596240265</v>
+        <v>405798.7573013709</v>
       </c>
       <c t="n" r="Y35" s="64">
-        <v>53412.711664047696</v>
+        <v>397900.73476331594</v>
       </c>
       <c t="n" r="Z35" s="64">
-        <v>53671.557155854796</v>
+        <v>393881.538492464</v>
       </c>
       <c t="n" r="AA35" s="64">
-        <v>54040.5820201565</v>
+        <v>381064.717613607</v>
       </c>
       <c t="n" r="AB35" s="64">
-        <v>54488.24925275488</v>
+        <v>383395.3303360203</v>
       </c>
       <c t="n" r="AC35" s="64">
-        <v>53585.77927601577</v>
+        <v>394315.2691541479</v>
       </c>
       <c t="n" r="AD35" s="64">
-        <v>52840.348681796146</v>
+        <v>409003.17541056895</v>
       </c>
       <c t="n" r="AE35" s="64">
-        <v>52871.07347743364</v>
+        <v>409003.9479019784</v>
       </c>
       <c t="n" r="AF35" s="64">
-        <v>51086.03445882634</v>
+        <v>386386.3633884255</v>
       </c>
       <c t="n" r="AG35" s="64">
-        <v>49272.554184923065</v>
-      </c>
-      <c r="AH35" s="60">
-        <v>-0.04198253554404447</v>
+        <v>371312.4329242126</v>
+      </c>
+      <c t="n" r="AH35" s="64">
+        <v>399438.489013172</v>
+      </c>
+      <c r="AI35" s="60">
+        <v>-0.3085291404363072</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Poland</t>
+          <t xml:space="preserve">Portugal</t>
         </is>
       </c>
       <c t="n" r="B36" s="64">
-        <v>579224.1950662982</v>
+        <v>59473.35473937497</v>
       </c>
       <c t="n" r="C36" s="64">
-        <v>475872.745815169</v>
+        <v>59473.35473937497</v>
       </c>
       <c t="n" r="D36" s="64">
-        <v>463801.21294248255</v>
+        <v>61397.48790964025</v>
       </c>
       <c t="n" r="E36" s="64">
-        <v>451029.35126212594</v>
+        <v>65243.1112822155</v>
       </c>
       <c t="n" r="F36" s="64">
-        <v>450927.27718234586</v>
+        <v>63745.46885833717</v>
       </c>
       <c t="n" r="G36" s="64">
-        <v>445318.00826973043</v>
+        <v>64652.626461422835</v>
       </c>
       <c t="n" r="H36" s="64">
-        <v>447348.5925307316</v>
+        <v>69306.34382605783</v>
       </c>
       <c t="n" r="I36" s="64">
-        <v>461159.06287620513</v>
+        <v>67012.82493551866</v>
       </c>
       <c t="n" r="J36" s="64">
-        <v>451079.16426128</v>
+        <v>70199.49747763088</v>
       </c>
       <c t="n" r="K36" s="64">
-        <v>420746.34196386597</v>
+        <v>75058.69904036938</v>
       </c>
       <c t="n" r="L36" s="64">
-        <v>409335.6551042061</v>
+        <v>83168.63688104991</v>
       </c>
       <c t="n" r="M36" s="64">
-        <v>396680.48580904934</v>
+        <v>82420.02026373903</v>
       </c>
       <c t="n" r="N36" s="64">
-        <v>395275.60650161596</v>
+        <v>81939.94494332372</v>
       </c>
       <c t="n" r="O36" s="64">
-        <v>385552.0096342476</v>
+        <v>86394.95184712528</v>
       </c>
       <c t="n" r="P36" s="64">
-        <v>399360.7551280713</v>
+        <v>81299.14960873623</v>
       </c>
       <c t="n" r="Q36" s="64">
-        <v>405015.28730712325</v>
+        <v>84520.57139497934</v>
       </c>
       <c t="n" r="R36" s="64">
-        <v>405202.2577050072</v>
+        <v>86489.2191467621</v>
       </c>
       <c t="n" r="S36" s="64">
-        <v>420378.6312485429</v>
+        <v>81649.47159633867</v>
       </c>
       <c t="n" r="T36" s="64">
-        <v>420214.81622948486</v>
+        <v>79325.44549046084</v>
       </c>
       <c t="n" r="U36" s="64">
-        <v>413674.6699947614</v>
+        <v>76900.51429353865</v>
       </c>
       <c t="n" r="V36" s="64">
-        <v>395673.6897311875</v>
+        <v>73810.10944164018</v>
       </c>
       <c t="n" r="W36" s="64">
-        <v>412901.8324390758</v>
+        <v>69529.86058840809</v>
       </c>
       <c t="n" r="X36" s="64">
-        <v>411821.41329576395</v>
+        <v>68058.17479450692</v>
       </c>
       <c t="n" r="Y36" s="64">
-        <v>404244.1120507451</v>
+        <v>66076.80958577873</v>
       </c>
       <c t="n" r="Z36" s="64">
-        <v>400103.33199412504</v>
+        <v>64156.748794742816</v>
       </c>
       <c t="n" r="AA36" s="64">
-        <v>387209.2761083888</v>
+        <v>64041.75800424398</v>
       </c>
       <c t="n" r="AB36" s="64">
-        <v>389149.2809711536</v>
+        <v>68178.64459756165</v>
       </c>
       <c t="n" r="AC36" s="64">
-        <v>400064.97895259515</v>
+        <v>66351.93585523692</v>
       </c>
       <c t="n" r="AD36" s="64">
-        <v>414395.7452640889</v>
+        <v>71403.99847972664</v>
       </c>
       <c t="n" r="AE36" s="64">
-        <v>413128.19753418217</v>
+        <v>67764.99308337044</v>
       </c>
       <c t="n" r="AF36" s="64">
-        <v>390538.9357119073</v>
+        <v>64115.50619892482</v>
       </c>
       <c t="n" r="AG36" s="64">
-        <v>376038.4614326167</v>
-      </c>
-      <c r="AH36" s="60">
-        <v>-0.35078944450934896</v>
+        <v>58029.34780094074</v>
+      </c>
+      <c t="n" r="AH36" s="64">
+        <v>56359.40719254325</v>
+      </c>
+      <c r="AI36" s="60">
+        <v>-0.052358700135173235</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Portugal</t>
+          <t xml:space="preserve">Romania</t>
         </is>
       </c>
       <c t="n" r="B37" s="64">
-        <v>58365.6825851972</v>
+        <v>310278.01355435635</v>
       </c>
       <c t="n" r="C37" s="64">
-        <v>58365.6825851972</v>
+        <v>257137.1829171091</v>
       </c>
       <c t="n" r="D37" s="64">
-        <v>60288.06293839859</v>
+        <v>210408.32836219712</v>
       </c>
       <c t="n" r="E37" s="64">
-        <v>64147.52632681609</v>
+        <v>194856.67144689706</v>
       </c>
       <c t="n" r="F37" s="64">
-        <v>62651.5186487107</v>
+        <v>184393.86526965187</v>
       </c>
       <c t="n" r="G37" s="64">
-        <v>63560.3441563093</v>
+        <v>181845.45519949406</v>
       </c>
       <c t="n" r="H37" s="64">
-        <v>68231.91397187566</v>
+        <v>188741.8140222482</v>
       </c>
       <c t="n" r="I37" s="64">
-        <v>65948.35343014551</v>
+        <v>191736.16309246645</v>
       </c>
       <c t="n" r="J37" s="64">
-        <v>69146.78711857068</v>
+        <v>185152.58669828874</v>
       </c>
       <c t="n" r="K37" s="64">
-        <v>74018.72142153395</v>
+        <v>168185.19378524637</v>
       </c>
       <c t="n" r="L37" s="64">
-        <v>82117.517464721</v>
+        <v>150290.07174714922</v>
       </c>
       <c t="n" r="M37" s="64">
-        <v>81402.90959515036</v>
+        <v>142238.310366946</v>
       </c>
       <c t="n" r="N37" s="64">
-        <v>80944.3206751135</v>
+        <v>145982.34360384825</v>
       </c>
       <c t="n" r="O37" s="64">
-        <v>85407.30017669252</v>
+        <v>147998.7648958642</v>
       </c>
       <c t="n" r="P37" s="64">
-        <v>80319.39325974906</v>
+        <v>153862.69678839407</v>
       </c>
       <c t="n" r="Q37" s="64">
-        <v>83609.51167067501</v>
+        <v>152121.61200834974</v>
       </c>
       <c t="n" r="R37" s="64">
-        <v>85563.97614982107</v>
+        <v>151327.09841184271</v>
       </c>
       <c t="n" r="S37" s="64">
-        <v>80735.91826033867</v>
+        <v>152350.49743695793</v>
       </c>
       <c t="n" r="T37" s="64">
-        <v>78468.95153357324</v>
+        <v>155930.7778657804</v>
       </c>
       <c t="n" r="U37" s="64">
-        <v>76078.08461313622</v>
+        <v>152897.5571723738</v>
       </c>
       <c t="n" r="V37" s="64">
-        <v>72970.19262943427</v>
+        <v>131293.8737377695</v>
       </c>
       <c t="n" r="W37" s="64">
-        <v>68726.55947715073</v>
+        <v>126669.90689480776</v>
       </c>
       <c t="n" r="X37" s="64">
-        <v>67241.83007091853</v>
+        <v>132871.06780773393</v>
       </c>
       <c t="n" r="Y37" s="64">
-        <v>65313.966913113814</v>
+        <v>130693.30909452222</v>
       </c>
       <c t="n" r="Z37" s="64">
-        <v>63447.861196758975</v>
+        <v>118721.66759291246</v>
       </c>
       <c t="n" r="AA37" s="64">
-        <v>63379.078069318646</v>
+        <v>118214.81298483124</v>
       </c>
       <c t="n" r="AB37" s="64">
-        <v>67534.5464700274</v>
+        <v>117099.80640345946</v>
       </c>
       <c t="n" r="AC37" s="64">
-        <v>65694.90410309844</v>
+        <v>115310.1637575458</v>
       </c>
       <c t="n" r="AD37" s="64">
-        <v>70758.47353982084</v>
+        <v>118358.66106500567</v>
       </c>
       <c t="n" r="AE37" s="64">
-        <v>67091.62408637791</v>
+        <v>119236.80046720052</v>
       </c>
       <c t="n" r="AF37" s="64">
-        <v>63467.9023086822</v>
+        <v>115762.75453877123</v>
       </c>
       <c t="n" r="AG37" s="64">
-        <v>57453.771345117646</v>
-      </c>
-      <c r="AH37" s="60">
-        <v>-0.015624099636775891</v>
+        <v>112036.03865103626</v>
+      </c>
+      <c t="n" r="AH37" s="64">
+        <v>115403.1516033109</v>
+      </c>
+      <c r="AI37" s="60">
+        <v>-0.6280653267006497</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Romania</t>
+          <t xml:space="preserve">Russian Federation</t>
         </is>
       </c>
       <c t="n" r="B38" s="64">
-        <v>307045.7229517912</v>
+        <v>3166579.0510319015</v>
       </c>
       <c t="n" r="C38" s="64">
-        <v>249696.53022375313</v>
+        <v>3166579.0510319015</v>
       </c>
       <c t="n" r="D38" s="64">
-        <v>205870.9590089162</v>
+        <v>3005319.3964110604</v>
       </c>
       <c t="n" r="E38" s="64">
-        <v>190518.23256446535</v>
+        <v>2524618.0445963293</v>
       </c>
       <c t="n" r="F38" s="64">
-        <v>180396.6184546082</v>
+        <v>2385612.003282474</v>
       </c>
       <c t="n" r="G38" s="64">
-        <v>177810.77862995595</v>
+        <v>2122812.4029064984</v>
       </c>
       <c t="n" r="H38" s="64">
-        <v>184936.23764218754</v>
+        <v>2070711.4873108256</v>
       </c>
       <c t="n" r="I38" s="64">
-        <v>187826.0074058803</v>
+        <v>2019459.8086076013</v>
       </c>
       <c t="n" r="J38" s="64">
-        <v>180668.05052174392</v>
+        <v>1901804.2055407995</v>
       </c>
       <c t="n" r="K38" s="64">
-        <v>163592.71467015072</v>
+        <v>1870018.309789547</v>
       </c>
       <c t="n" r="L38" s="64">
-        <v>145577.47726034615</v>
+        <v>1900503.7158563505</v>
       </c>
       <c t="n" r="M38" s="64">
-        <v>138979.5011533197</v>
+        <v>1895001.3844620518</v>
       </c>
       <c t="n" r="N38" s="64">
-        <v>142647.7727563017</v>
+        <v>1928619.9536650572</v>
       </c>
       <c t="n" r="O38" s="64">
-        <v>144186.01036812292</v>
+        <v>1908501.866038693</v>
       </c>
       <c t="n" r="P38" s="64">
-        <v>149901.26265171613</v>
+        <v>1940117.7999604628</v>
       </c>
       <c t="n" r="Q38" s="64">
-        <v>148139.9947492542</v>
+        <v>1952617.1568829194</v>
       </c>
       <c t="n" r="R38" s="64">
-        <v>146902.59530089973</v>
+        <v>1970602.687171546</v>
       </c>
       <c t="n" r="S38" s="64">
-        <v>148403.92388085692</v>
+        <v>2030163.0839392948</v>
       </c>
       <c t="n" r="T38" s="64">
-        <v>151887.14268158752</v>
+        <v>2030122.2631329338</v>
       </c>
       <c t="n" r="U38" s="64">
-        <v>147982.50679872555</v>
+        <v>2059490.289291669</v>
       </c>
       <c t="n" r="V38" s="64">
-        <v>127058.67000303882</v>
+        <v>1925038.1803326178</v>
       </c>
       <c t="n" r="W38" s="64">
-        <v>122862.63188840485</v>
+        <v>2019393.4302653947</v>
       </c>
       <c t="n" r="X38" s="64">
-        <v>129627.14883346972</v>
+        <v>2076058.193262399</v>
       </c>
       <c t="n" r="Y38" s="64">
-        <v>127537.23951182557</v>
+        <v>2100946.5194569756</v>
       </c>
       <c t="n" r="Z38" s="64">
-        <v>116059.3246125646</v>
+        <v>2041805.2065549085</v>
       </c>
       <c t="n" r="AA38" s="64">
-        <v>115292.88998800021</v>
+        <v>2037643.3138224804</v>
       </c>
       <c t="n" r="AB38" s="64">
-        <v>114817.68507204064</v>
+        <v>2033334.962876028</v>
       </c>
       <c t="n" r="AC38" s="64">
-        <v>113456.38047250563</v>
+        <v>2033968.3619988097</v>
       </c>
       <c t="n" r="AD38" s="64">
-        <v>116701.16426918635</v>
+        <v>2082644.3231323897</v>
       </c>
       <c t="n" r="AE38" s="64">
-        <v>117597.48015410716</v>
+        <v>2145241.3803663184</v>
       </c>
       <c t="n" r="AF38" s="64">
-        <v>113939.38365887779</v>
+        <v>2136517.947215497</v>
       </c>
       <c t="n" r="AG38" s="64">
-        <v>109934.32766876201</v>
-      </c>
-      <c r="AH38" s="60">
-        <v>-0.6419610518853486</v>
+        <v>2061361.8893754103</v>
+      </c>
+      <c t="n" r="AH38" s="64">
+        <v>2156599.340084509</v>
+      </c>
+      <c r="AI38" s="60">
+        <v>-0.3189497860848501</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Russian Federation</t>
+          <t xml:space="preserve">Slovakia</t>
         </is>
       </c>
       <c t="n" r="B39" s="64">
-        <v>3162627.604860984</v>
+        <v>73738.66978283292</v>
       </c>
       <c t="n" r="C39" s="64">
-        <v>3162627.604860984</v>
+        <v>73738.66978283292</v>
       </c>
       <c t="n" r="D39" s="64">
-        <v>3001659.103976008</v>
+        <v>64343.41314882076</v>
       </c>
       <c t="n" r="E39" s="64">
-        <v>2521408.581408788</v>
+        <v>58624.787503618056</v>
       </c>
       <c t="n" r="F39" s="64">
-        <v>2382499.4153036014</v>
+        <v>55242.88191821568</v>
       </c>
       <c t="n" r="G39" s="64">
-        <v>2119790.293254699</v>
+        <v>52686.66144410409</v>
       </c>
       <c t="n" r="H39" s="64">
-        <v>2067814.8352279318</v>
+        <v>53179.97357867129</v>
       </c>
       <c t="n" r="I39" s="64">
-        <v>2016774.0761438254</v>
+        <v>52997.95936410307</v>
       </c>
       <c t="n" r="J39" s="64">
-        <v>1899349.7883040162</v>
+        <v>52819.65845766322</v>
       </c>
       <c t="n" r="K39" s="64">
-        <v>1867454.794646353</v>
+        <v>52118.31048678741</v>
       </c>
       <c t="n" r="L39" s="64">
-        <v>1897763.7792671584</v>
+        <v>50854.29384728</v>
       </c>
       <c t="n" r="M39" s="64">
-        <v>1892383.8221983665</v>
+        <v>48986.210453857435</v>
       </c>
       <c t="n" r="N39" s="64">
-        <v>1926119.7496550288</v>
+        <v>51256.63094230085</v>
       </c>
       <c t="n" r="O39" s="64">
-        <v>1905832.7981492137</v>
+        <v>49870.14887126095</v>
       </c>
       <c t="n" r="P39" s="64">
-        <v>1937194.9171437705</v>
+        <v>49973.498946536834</v>
       </c>
       <c t="n" r="Q39" s="64">
-        <v>1949405.1034988821</v>
+        <v>50679.97154703243</v>
       </c>
       <c t="n" r="R39" s="64">
-        <v>1966308.3792962106</v>
+        <v>50666.31275191574</v>
       </c>
       <c t="n" r="S39" s="64">
-        <v>2024878.4505697144</v>
+        <v>50444.973216240105</v>
       </c>
       <c t="n" r="T39" s="64">
-        <v>2024611.8811969152</v>
+        <v>48699.37816663213</v>
       </c>
       <c t="n" r="U39" s="64">
-        <v>2054042.2282357381</v>
+        <v>49214.1633887053</v>
       </c>
       <c t="n" r="V39" s="64">
-        <v>1918798.7914709656</v>
+        <v>44955.41175117003</v>
       </c>
       <c t="n" r="W39" s="64">
-        <v>2011925.1734524418</v>
+        <v>45766.63121509287</v>
       </c>
       <c t="n" r="X39" s="64">
-        <v>2069031.4306963258</v>
+        <v>44839.89583694146</v>
       </c>
       <c t="n" r="Y39" s="64">
-        <v>2093883.8311241467</v>
+        <v>42451.37486410281</v>
       </c>
       <c t="n" r="Z39" s="64">
-        <v>2033822.9073212503</v>
+        <v>42131.21664380669</v>
       </c>
       <c t="n" r="AA39" s="64">
-        <v>2029101.1185314509</v>
+        <v>40140.20427984629</v>
       </c>
       <c t="n" r="AB39" s="64">
-        <v>2023981.9505812149</v>
+        <v>40869.57699888254</v>
       </c>
       <c t="n" r="AC39" s="64">
-        <v>2023425.7882754577</v>
+        <v>41318.671180313664</v>
       </c>
       <c t="n" r="AD39" s="64">
-        <v>2070208.410984428</v>
+        <v>42419.28131691703</v>
       </c>
       <c t="n" r="AE39" s="64">
-        <v>2132702.0542927375</v>
+        <v>42276.429864156526</v>
       </c>
       <c t="n" r="AF39" s="64">
-        <v>2122793.4065329437</v>
+        <v>39955.72713446684</v>
       </c>
       <c t="n" r="AG39" s="64">
-        <v>2051437.4137201922</v>
-      </c>
-      <c r="AH39" s="60">
-        <v>-0.3513503105559705</v>
+        <v>37187.88947925809</v>
+      </c>
+      <c t="n" r="AH39" s="64">
+        <v>41226.49357881563</v>
+      </c>
+      <c r="AI39" s="60">
+        <v>-0.4409108043278866</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Slovakia</t>
+          <t xml:space="preserve">Slovenia</t>
         </is>
       </c>
       <c t="n" r="B40" s="64">
-        <v>73374.79171731797</v>
+        <v>20632.474211779998</v>
       </c>
       <c t="n" r="C40" s="64">
-        <v>73374.79171731797</v>
+        <v>18797.64778314313</v>
       </c>
       <c t="n" r="D40" s="64">
-        <v>63918.512692933684</v>
+        <v>17447.821539248565</v>
       </c>
       <c t="n" r="E40" s="64">
-        <v>58210.71294647765</v>
+        <v>17432.259336015333</v>
       </c>
       <c t="n" r="F40" s="64">
-        <v>54800.76978215462</v>
+        <v>17667.815782161473</v>
       </c>
       <c t="n" r="G40" s="64">
-        <v>52331.006493758236</v>
+        <v>18082.34227232341</v>
       </c>
       <c t="n" r="H40" s="64">
-        <v>52840.350263463035</v>
+        <v>18863.252857506348</v>
       </c>
       <c t="n" r="I40" s="64">
-        <v>52686.82962074424</v>
+        <v>19463.616082083343</v>
       </c>
       <c t="n" r="J40" s="64">
-        <v>52537.19919191383</v>
+        <v>20003.94394588307</v>
       </c>
       <c t="n" r="K40" s="64">
-        <v>51818.948320474796</v>
+        <v>19600.9288834434</v>
       </c>
       <c t="n" r="L40" s="64">
-        <v>50517.04538732825</v>
+        <v>18985.921037615142</v>
       </c>
       <c t="n" r="M40" s="64">
-        <v>48704.16596191831</v>
+        <v>18769.38080744517</v>
       </c>
       <c t="n" r="N40" s="64">
-        <v>51033.17673206418</v>
+        <v>20040.569499593486</v>
       </c>
       <c t="n" r="O40" s="64">
-        <v>49638.079350227694</v>
+        <v>20318.614670689018</v>
       </c>
       <c t="n" r="P40" s="64">
-        <v>49770.51485308592</v>
+        <v>19987.82770636113</v>
       </c>
       <c t="n" r="Q40" s="64">
-        <v>50505.50085844827</v>
+        <v>20386.443134738332</v>
       </c>
       <c t="n" r="R40" s="64">
-        <v>50495.10442858536</v>
+        <v>20643.291608237138</v>
       </c>
       <c t="n" r="S40" s="64">
-        <v>50304.735761409436</v>
+        <v>20833.67346443917</v>
       </c>
       <c t="n" r="T40" s="64">
-        <v>48574.307859163266</v>
+        <v>21020.410270391192</v>
       </c>
       <c t="n" r="U40" s="64">
-        <v>49101.025757006195</v>
+        <v>21743.29269126389</v>
       </c>
       <c t="n" r="V40" s="64">
-        <v>44813.94161366102</v>
+        <v>19566.59819158634</v>
       </c>
       <c t="n" r="W40" s="64">
-        <v>45624.015782169496</v>
+        <v>19797.92741421541</v>
       </c>
       <c t="n" r="X40" s="64">
-        <v>44642.63622757906</v>
+        <v>19716.011030758847</v>
       </c>
       <c t="n" r="Y40" s="64">
-        <v>42237.6902536032</v>
+        <v>19083.13755320007</v>
       </c>
       <c t="n" r="Z40" s="64">
-        <v>41915.26501012496</v>
+        <v>18382.004578132368</v>
       </c>
       <c t="n" r="AA40" s="64">
-        <v>39959.818857948674</v>
+        <v>16726.123333991945</v>
       </c>
       <c t="n" r="AB40" s="64">
-        <v>40657.975278782775</v>
+        <v>16912.46539968917</v>
       </c>
       <c t="n" r="AC40" s="64">
-        <v>41126.851545978614</v>
+        <v>17790.02676668252</v>
       </c>
       <c t="n" r="AD40" s="64">
-        <v>42215.28514093325</v>
+        <v>17870.427766285833</v>
       </c>
       <c t="n" r="AE40" s="64">
-        <v>42081.7712549358</v>
+        <v>17689.130652186934</v>
       </c>
       <c t="n" r="AF40" s="64">
-        <v>39776.349359349755</v>
+        <v>17204.82660180772</v>
       </c>
       <c t="n" r="AG40" s="64">
-        <v>37002.70636729104</v>
-      </c>
-      <c r="AH40" s="60">
-        <v>-0.49570274066539355</v>
+        <v>15974.783488388333</v>
+      </c>
+      <c t="n" r="AH40" s="64">
+        <v>16106.47722729196</v>
+      </c>
+      <c r="AI40" s="60">
+        <v>-0.21936278402829384</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Slovenia</t>
+          <t xml:space="preserve">Spain</t>
         </is>
       </c>
       <c t="n" r="B41" s="64">
-        <v>20448.906990213316</v>
+        <v>287710.2723640255</v>
       </c>
       <c t="n" r="C41" s="64">
-        <v>18598.85244460023</v>
+        <v>287710.2723640255</v>
       </c>
       <c t="n" r="D41" s="64">
-        <v>17246.78263084555</v>
+        <v>295442.8031166119</v>
       </c>
       <c t="n" r="E41" s="64">
-        <v>17236.294596820884</v>
+        <v>304833.84145779593</v>
       </c>
       <c t="n" r="F41" s="64">
-        <v>17483.72219584475</v>
+        <v>294733.41280607635</v>
       </c>
       <c t="n" r="G41" s="64">
-        <v>17902.695066213375</v>
+        <v>310885.52717444487</v>
       </c>
       <c t="n" r="H41" s="64">
-        <v>18683.173721755473</v>
+        <v>327011.04646928783</v>
       </c>
       <c t="n" r="I41" s="64">
-        <v>19287.59695813418</v>
+        <v>318543.2640857484</v>
       </c>
       <c t="n" r="J41" s="64">
-        <v>19826.444243225742</v>
+        <v>332619.6507893869</v>
       </c>
       <c t="n" r="K41" s="64">
-        <v>19417.931297784366</v>
+        <v>342182.9762764626</v>
       </c>
       <c t="n" r="L41" s="64">
-        <v>18803.49153326483</v>
+        <v>368362.6373485472</v>
       </c>
       <c t="n" r="M41" s="64">
-        <v>18581.832783679114</v>
+        <v>383276.3610381732</v>
       </c>
       <c t="n" r="N41" s="64">
-        <v>19854.454570788515</v>
+        <v>382042.8357619873</v>
       </c>
       <c t="n" r="O41" s="64">
-        <v>20127.384950515567</v>
+        <v>400722.4463299559</v>
       </c>
       <c t="n" r="P41" s="64">
-        <v>19799.507643771172</v>
+        <v>407928.7679298864</v>
       </c>
       <c t="n" r="Q41" s="64">
-        <v>20202.159080747628</v>
+        <v>423589.74120327225</v>
       </c>
       <c t="n" r="R41" s="64">
-        <v>20462.3773912906</v>
+        <v>438759.6322883359</v>
       </c>
       <c t="n" r="S41" s="64">
-        <v>20662.809004771087</v>
+        <v>432096.7333352173</v>
       </c>
       <c t="n" r="T41" s="64">
-        <v>20846.872381129724</v>
+        <v>442831.79822736944</v>
       </c>
       <c t="n" r="U41" s="64">
-        <v>21572.713420937554</v>
+        <v>409174.5181428354</v>
       </c>
       <c t="n" r="V41" s="64">
-        <v>19407.73372425014</v>
+        <v>369811.12679554697</v>
       </c>
       <c t="n" r="W41" s="64">
-        <v>19643.772775280475</v>
+        <v>354652.27925711765</v>
       </c>
       <c t="n" r="X41" s="64">
-        <v>19567.829339295557</v>
+        <v>354632.1532882035</v>
       </c>
       <c t="n" r="Y41" s="64">
-        <v>18943.48936477264</v>
+        <v>347509.266350181</v>
       </c>
       <c t="n" r="Z41" s="64">
-        <v>18250.069537664775</v>
+        <v>320452.33249420434</v>
       </c>
       <c t="n" r="AA41" s="64">
-        <v>16612.198734341782</v>
+        <v>321937.4343545846</v>
       </c>
       <c t="n" r="AB41" s="64">
-        <v>16793.50654374508</v>
+        <v>333623.4076798377</v>
       </c>
       <c t="n" r="AC41" s="64">
-        <v>17657.576651312236</v>
+        <v>321649.69571911014</v>
       </c>
       <c t="n" r="AD41" s="64">
-        <v>17727.382636443665</v>
+        <v>334703.5210149976</v>
       </c>
       <c t="n" r="AE41" s="64">
-        <v>17554.68511052047</v>
+        <v>328905.09403329866</v>
       </c>
       <c t="n" r="AF41" s="64">
-        <v>17074.181856198975</v>
+        <v>309814.16654012504</v>
       </c>
       <c t="n" r="AG41" s="64">
-        <v>15851.44202316139</v>
-      </c>
-      <c r="AH41" s="60">
-        <v>-0.22482692934405915</v>
+        <v>272244.3621210885</v>
+      </c>
+      <c t="n" r="AH41" s="64">
+        <v>288847.81551132735</v>
+      </c>
+      <c r="AI41" s="60">
+        <v>0.0039537800925736446</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Spain</t>
+          <t xml:space="preserve">Sweden</t>
         </is>
       </c>
       <c t="n" r="B42" s="64">
-        <v>290103.67264415027</v>
+        <v>71478.31263971415</v>
       </c>
       <c t="n" r="C42" s="64">
-        <v>290103.67264415027</v>
+        <v>71478.31263971415</v>
       </c>
       <c t="n" r="D42" s="64">
-        <v>297816.59744729183</v>
+        <v>71587.78238951057</v>
       </c>
       <c t="n" r="E42" s="64">
-        <v>307440.41471221554</v>
+        <v>71252.63622545594</v>
       </c>
       <c t="n" r="F42" s="64">
-        <v>296865.05197551695</v>
+        <v>71468.07401187607</v>
       </c>
       <c t="n" r="G42" s="64">
-        <v>313888.66869007907</v>
+        <v>73940.29700205941</v>
       </c>
       <c t="n" r="H42" s="64">
-        <v>330044.52561096544</v>
+        <v>73326.172171143</v>
       </c>
       <c t="n" r="I42" s="64">
-        <v>322247.12804983906</v>
+        <v>77238.9969967179</v>
       </c>
       <c t="n" r="J42" s="64">
-        <v>336504.8304038898</v>
+        <v>72345.71564560445</v>
       </c>
       <c t="n" r="K42" s="64">
-        <v>345924.1554286923</v>
+        <v>72734.23262672563</v>
       </c>
       <c t="n" r="L42" s="64">
-        <v>372916.2785666322</v>
+        <v>69602.78717253823</v>
       </c>
       <c t="n" r="M42" s="64">
-        <v>388091.25808746944</v>
+        <v>68349.11129311797</v>
       </c>
       <c t="n" r="N42" s="64">
-        <v>385864.19273918465</v>
+        <v>69128.53469181877</v>
       </c>
       <c t="n" r="O42" s="64">
-        <v>403903.88376792293</v>
+        <v>69735.20963878412</v>
       </c>
       <c t="n" r="P42" s="64">
-        <v>411770.5764764623</v>
+        <v>70071.4565559306</v>
       </c>
       <c t="n" r="Q42" s="64">
-        <v>427565.5660373733</v>
+        <v>69410.33442549456</v>
       </c>
       <c t="n" r="R42" s="64">
-        <v>442321.4027088404</v>
+        <v>66540.92516957996</v>
       </c>
       <c t="n" r="S42" s="64">
-        <v>435528.48669984593</v>
+        <v>66183.71640291958</v>
       </c>
       <c t="n" r="T42" s="64">
-        <v>446685.74687833514</v>
+        <v>65034.87666301634</v>
       </c>
       <c t="n" r="U42" s="64">
-        <v>412489.5788297107</v>
+        <v>62627.99153672841</v>
       </c>
       <c t="n" r="V42" s="64">
-        <v>372606.6306948969</v>
+        <v>58395.2554267099</v>
       </c>
       <c t="n" r="W42" s="64">
-        <v>358156.6421856415</v>
+        <v>64375.65006099089</v>
       </c>
       <c t="n" r="X42" s="64">
-        <v>357852.0371453998</v>
+        <v>60012.263265904425</v>
       </c>
       <c t="n" r="Y42" s="64">
-        <v>350635.3726317519</v>
+        <v>57108.54523211572</v>
       </c>
       <c t="n" r="Z42" s="64">
-        <v>323830.8628826538</v>
+        <v>55473.54583699926</v>
       </c>
       <c t="n" r="AA42" s="64">
-        <v>325894.011352414</v>
+        <v>53729.41335145319</v>
       </c>
       <c t="n" r="AB42" s="64">
-        <v>337416.3831164354</v>
+        <v>53557.22498536856</v>
       </c>
       <c t="n" r="AC42" s="64">
-        <v>325627.6004899154</v>
+        <v>53468.24837104601</v>
       </c>
       <c t="n" r="AD42" s="64">
-        <v>338844.7501206045</v>
+        <v>52562.66123290778</v>
       </c>
       <c t="n" r="AE42" s="64">
-        <v>333251.39739088</v>
+        <v>51784.16932327309</v>
       </c>
       <c t="n" r="AF42" s="64">
-        <v>313828.4890976521</v>
+        <v>50607.240197677405</v>
       </c>
       <c t="n" r="AG42" s="64">
-        <v>274742.894880007</v>
-      </c>
-      <c r="AH42" s="60">
-        <v>-0.05294927025272524</v>
+        <v>46214.02857889871</v>
+      </c>
+      <c t="n" r="AH42" s="64">
+        <v>47816.70138883821</v>
+      </c>
+      <c r="AI42" s="60">
+        <v>-0.3310320344317876</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Sweden</t>
+          <t xml:space="preserve">Switzerland</t>
         </is>
       </c>
       <c t="n" r="B43" s="64">
-        <v>71441.55460444231</v>
+        <v>54933.87865111361</v>
       </c>
       <c t="n" r="C43" s="64">
-        <v>71441.55460444231</v>
+        <v>54933.87865111361</v>
       </c>
       <c t="n" r="D43" s="64">
-        <v>71688.51641271339</v>
+        <v>56818.2550036635</v>
       </c>
       <c t="n" r="E43" s="64">
-        <v>71213.25814944874</v>
+        <v>56567.8955850467</v>
       </c>
       <c t="n" r="F43" s="64">
-        <v>71510.19227336113</v>
+        <v>53980.31165707064</v>
       </c>
       <c t="n" r="G43" s="64">
-        <v>74016.11246028155</v>
+        <v>52929.34388829911</v>
       </c>
       <c t="n" r="H43" s="64">
-        <v>73363.5013238189</v>
+        <v>53818.43192695257</v>
       </c>
       <c t="n" r="I43" s="64">
-        <v>77313.20320525614</v>
+        <v>54468.39389143239</v>
       </c>
       <c t="n" r="J43" s="64">
-        <v>72310.30427195116</v>
+        <v>53252.23518001471</v>
       </c>
       <c t="n" r="K43" s="64">
-        <v>72759.31827527135</v>
+        <v>54784.056086545206</v>
       </c>
       <c t="n" r="L43" s="64">
-        <v>69684.05887119865</v>
+        <v>54585.78728726494</v>
       </c>
       <c t="n" r="M43" s="64">
-        <v>68337.64168348555</v>
+        <v>53839.343684898806</v>
       </c>
       <c t="n" r="N43" s="64">
-        <v>69156.52342435466</v>
+        <v>55364.27767833669</v>
       </c>
       <c t="n" r="O43" s="64">
-        <v>69871.8557080664</v>
+        <v>53808.30121938506</v>
       </c>
       <c t="n" r="P43" s="64">
-        <v>70231.12398035663</v>
+        <v>54870.35823855533</v>
       </c>
       <c t="n" r="Q43" s="64">
-        <v>69656.83932464765</v>
+        <v>55465.746137461974</v>
       </c>
       <c t="n" r="R43" s="64">
-        <v>66827.53170681362</v>
+        <v>56089.86010289764</v>
       </c>
       <c t="n" r="S43" s="64">
-        <v>66441.37008807927</v>
+        <v>55758.811109939976</v>
       </c>
       <c t="n" r="T43" s="64">
-        <v>65324.01646480944</v>
+        <v>53816.9855383098</v>
       </c>
       <c t="n" r="U43" s="64">
-        <v>62952.52062833282</v>
+        <v>55211.16779928032</v>
       </c>
       <c t="n" r="V43" s="64">
-        <v>58680.169213875764</v>
+        <v>53726.26486270715</v>
       </c>
       <c t="n" r="W43" s="64">
-        <v>64713.6413202847</v>
+        <v>55306.84962155409</v>
       </c>
       <c t="n" r="X43" s="64">
-        <v>60371.63176064027</v>
+        <v>51186.29259980723</v>
       </c>
       <c t="n" r="Y43" s="64">
-        <v>57508.57153916053</v>
+        <v>52516.28479779902</v>
       </c>
       <c t="n" r="Z43" s="64">
-        <v>55842.976948376614</v>
+        <v>53361.838614876695</v>
       </c>
       <c t="n" r="AA43" s="64">
-        <v>53944.02364110482</v>
+        <v>49425.48029144421</v>
       </c>
       <c t="n" r="AB43" s="64">
-        <v>54105.996283068234</v>
+        <v>48903.48393080708</v>
       </c>
       <c t="n" r="AC43" s="64">
-        <v>53701.68028623232</v>
+        <v>49211.97586572474</v>
       </c>
       <c t="n" r="AD43" s="64">
-        <v>53100.52492510579</v>
+        <v>48245.133564093674</v>
       </c>
       <c t="n" r="AE43" s="64">
-        <v>52149.82791067307</v>
+        <v>46741.169031892365</v>
       </c>
       <c t="n" r="AF43" s="64">
-        <v>50810.59266166185</v>
+        <v>46470.47258473198</v>
       </c>
       <c t="n" r="AG43" s="64">
-        <v>46284.752624082124</v>
-      </c>
-      <c r="AH43" s="60">
-        <v>-0.35213122278271236</v>
+        <v>43789.73694740407</v>
+      </c>
+      <c t="n" r="AH43" s="64">
+        <v>45135.720111104245</v>
+      </c>
+      <c r="AI43" s="60">
+        <v>-0.17836276593971653</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Switzerland</t>
+          <t xml:space="preserve">Türkiye</t>
         </is>
       </c>
       <c t="n" r="B44" s="64">
-        <v>53566.24761712522</v>
+        <v>219526.1511260599</v>
       </c>
       <c t="n" r="C44" s="64">
-        <v>53566.24761712522</v>
+        <v>219526.1511260599</v>
       </c>
       <c t="n" r="D44" s="64">
-        <v>55473.48335419056</v>
+        <v>226794.72134126278</v>
       </c>
       <c t="n" r="E44" s="64">
-        <v>55241.684759550466</v>
+        <v>233132.48256892952</v>
       </c>
       <c t="n" r="F44" s="64">
-        <v>52695.05194639416</v>
+        <v>240771.74649845835</v>
       </c>
       <c t="n" r="G44" s="64">
-        <v>51688.113461133886</v>
+        <v>234387.8300250214</v>
       </c>
       <c t="n" r="H44" s="64">
-        <v>52621.605788151115</v>
+        <v>248248.90883693332</v>
       </c>
       <c t="n" r="I44" s="64">
-        <v>53323.90310835636</v>
+        <v>267581.38626218546</v>
       </c>
       <c t="n" r="J44" s="64">
-        <v>52170.060514251316</v>
+        <v>278813.84054578765</v>
       </c>
       <c t="n" r="K44" s="64">
-        <v>53736.414371989005</v>
+        <v>280318.958801664</v>
       </c>
       <c t="n" r="L44" s="64">
-        <v>53580.15559444898</v>
+        <v>277776.7990658814</v>
       </c>
       <c t="n" r="M44" s="64">
-        <v>52889.12388051231</v>
+        <v>298916.75470246363</v>
       </c>
       <c t="n" r="N44" s="64">
-        <v>54428.30392330327</v>
+        <v>279740.1377805141</v>
       </c>
       <c t="n" r="O44" s="64">
-        <v>52938.18470610779</v>
+        <v>285623.3651914037</v>
       </c>
       <c t="n" r="P44" s="64">
-        <v>54022.305238538844</v>
+        <v>304794.78750038805</v>
       </c>
       <c t="n" r="Q44" s="64">
-        <v>54653.873858107916</v>
+        <v>314423.5699839391</v>
       </c>
       <c t="n" r="R44" s="64">
-        <v>55299.173384308655</v>
+        <v>337574.9984925617</v>
       </c>
       <c t="n" r="S44" s="64">
-        <v>54990.5693798844</v>
+        <v>358002.5346816609</v>
       </c>
       <c t="n" r="T44" s="64">
-        <v>53076.98840568623</v>
+        <v>391697.0059043078</v>
       </c>
       <c t="n" r="U44" s="64">
-        <v>54492.871725510864</v>
+        <v>388494.5562948762</v>
       </c>
       <c t="n" r="V44" s="64">
-        <v>53036.004788375685</v>
+        <v>395177.1412461563</v>
       </c>
       <c t="n" r="W44" s="64">
-        <v>54669.6677858365</v>
+        <v>398793.1646940703</v>
       </c>
       <c t="n" r="X44" s="64">
-        <v>50552.38229554464</v>
+        <v>428617.58908131334</v>
       </c>
       <c t="n" r="Y44" s="64">
-        <v>51901.419945790774</v>
+        <v>448184.45813388756</v>
       </c>
       <c t="n" r="Z44" s="64">
-        <v>52785.69917769518</v>
+        <v>440195.3008341929</v>
       </c>
       <c t="n" r="AA44" s="64">
-        <v>48845.03323724157</v>
+        <v>459489.50797873625</v>
       </c>
       <c t="n" r="AB44" s="64">
-        <v>48355.48364369467</v>
+        <v>474967.5348442466</v>
       </c>
       <c t="n" r="AC44" s="64">
-        <v>48631.37844763679</v>
+        <v>501107.9064454112</v>
       </c>
       <c t="n" r="AD44" s="64">
-        <v>47754.07969019168</v>
+        <v>528565.9289023875</v>
       </c>
       <c t="n" r="AE44" s="64">
-        <v>46256.926013418844</v>
+        <v>523108.03365523677</v>
       </c>
       <c t="n" r="AF44" s="64">
-        <v>45973.87042838304</v>
+        <v>508725.8734768983</v>
       </c>
       <c t="n" r="AG44" s="64">
-        <v>43290.99417001978</v>
-      </c>
-      <c r="AH44" s="60">
-        <v>-0.19182328246230226</v>
+        <v>523990.8166553155</v>
+      </c>
+      <c t="n" r="AH44" s="64">
+        <v>564389.749886679</v>
+      </c>
+      <c r="AI44" s="60">
+        <v>1.5709454066936466</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Türkiye</t>
+          <t xml:space="preserve">Ukraine</t>
         </is>
       </c>
       <c t="n" r="B45" s="64">
-        <v>219720.00140677099</v>
+        <v>942800.4688064854</v>
       </c>
       <c t="n" r="C45" s="64">
-        <v>219720.00140677099</v>
+        <v>942800.4688064854</v>
       </c>
       <c t="n" r="D45" s="64">
-        <v>227104.9436535334</v>
+        <v>856425.6225579284</v>
       </c>
       <c t="n" r="E45" s="64">
-        <v>233312.95008722646</v>
+        <v>801274.5919184915</v>
       </c>
       <c t="n" r="F45" s="64">
-        <v>240635.80837453296</v>
+        <v>711081.2134404344</v>
       </c>
       <c t="n" r="G45" s="64">
-        <v>234610.69807504254</v>
+        <v>604913.1894047894</v>
       </c>
       <c t="n" r="H45" s="64">
-        <v>248560.97339807946</v>
+        <v>562107.576419616</v>
       </c>
       <c t="n" r="I45" s="64">
-        <v>267662.0043587998</v>
+        <v>515421.49923116335</v>
       </c>
       <c t="n" r="J45" s="64">
-        <v>278883.25181208545</v>
+        <v>499632.651769265</v>
       </c>
       <c t="n" r="K45" s="64">
-        <v>280437.9553299938</v>
+        <v>480913.02024836425</v>
       </c>
       <c t="n" r="L45" s="64">
-        <v>277879.8150303077</v>
+        <v>449769.0625475325</v>
       </c>
       <c t="n" r="M45" s="64">
-        <v>299010.1558756641</v>
+        <v>427917.2421234343</v>
       </c>
       <c t="n" r="N45" s="64">
-        <v>279804.7021738394</v>
+        <v>445990.655048872</v>
       </c>
       <c t="n" r="O45" s="64">
-        <v>285698.77405396715</v>
+        <v>431034.49361054826</v>
       </c>
       <c t="n" r="P45" s="64">
-        <v>304853.826420663</v>
+        <v>440311.7822069511</v>
       </c>
       <c t="n" r="Q45" s="64">
-        <v>314474.67260742077</v>
+        <v>443118.425964255</v>
       </c>
       <c t="n" r="R45" s="64">
-        <v>336986.3546529798</v>
+        <v>442402.0132874031</v>
       </c>
       <c t="n" r="S45" s="64">
-        <v>357962.05322841177</v>
+        <v>460035.6434811943</v>
       </c>
       <c t="n" r="T45" s="64">
-        <v>391259.8130144501</v>
+        <v>463415.36445279035</v>
       </c>
       <c t="n" r="U45" s="64">
-        <v>387867.8982173631</v>
+        <v>451145.47876716126</v>
       </c>
       <c t="n" r="V45" s="64">
-        <v>395127.3143258169</v>
+        <v>390533.08744203043</v>
       </c>
       <c t="n" r="W45" s="64">
-        <v>398675.6488264341</v>
+        <v>407345.75484248245</v>
       </c>
       <c t="n" r="X45" s="64">
-        <v>428492.478417123</v>
+        <v>428749.0042791435</v>
       </c>
       <c t="n" r="Y45" s="64">
-        <v>448005.52682171727</v>
+        <v>417831.80039365124</v>
       </c>
       <c t="n" r="Z45" s="64">
-        <v>440048.6944358749</v>
+        <v>409243.15910859645</v>
       </c>
       <c t="n" r="AA45" s="64">
-        <v>459365.74300862954</v>
+        <v>362747.7157037493</v>
       </c>
       <c t="n" r="AB45" s="64">
-        <v>474469.91244589246</v>
+        <v>319166.5847861952</v>
       </c>
       <c t="n" r="AC45" s="64">
-        <v>500752.41054654913</v>
+        <v>337606.14987486665</v>
       </c>
       <c t="n" r="AD45" s="64">
-        <v>528311.8665030495</v>
+        <v>323286.5907584449</v>
       </c>
       <c t="n" r="AE45" s="64">
-        <v>524038.9133769229</v>
+        <v>339815.24372058</v>
       </c>
       <c t="n" r="AF45" s="64">
-        <v>508078.17184538074</v>
+        <v>334118.1083565401</v>
       </c>
       <c t="n" r="AG45" s="64">
-        <v>523897.1879691409</v>
-      </c>
-      <c r="AH45" s="60">
-        <v>1.3843855116277834</v>
+        <v>318034.94780847715</v>
+      </c>
+      <c t="n" r="AH45" s="64">
+        <v>327258.76554763195</v>
+      </c>
+      <c r="AI45" s="60">
+        <v>-0.6528865052836504</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Ukraine</t>
+          <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c t="n" r="B46" s="64">
-        <v>942389.6160886558</v>
+        <v>806301.8425151231</v>
       </c>
       <c t="n" r="C46" s="64">
-        <v>942389.6160886558</v>
+        <v>806301.8425151231</v>
       </c>
       <c t="n" r="D46" s="64">
-        <v>856026.4423292171</v>
+        <v>815170.0240455333</v>
       </c>
       <c t="n" r="E46" s="64">
-        <v>801043.2578897472</v>
+        <v>794899.520492862</v>
       </c>
       <c t="n" r="F46" s="64">
-        <v>710953.1230835121</v>
+        <v>775932.7994165694</v>
       </c>
       <c t="n" r="G46" s="64">
-        <v>604680.6659561475</v>
+        <v>763724.1129270965</v>
       </c>
       <c t="n" r="H46" s="64">
-        <v>561889.8419672737</v>
+        <v>757644.2164086263</v>
       </c>
       <c t="n" r="I46" s="64">
-        <v>515054.39071212406</v>
+        <v>778384.7256307075</v>
       </c>
       <c t="n" r="J46" s="64">
-        <v>499354.8842332269</v>
+        <v>754225.940996463</v>
       </c>
       <c t="n" r="K46" s="64">
-        <v>480675.6715017836</v>
+        <v>752806.8427712183</v>
       </c>
       <c t="n" r="L46" s="64">
-        <v>449361.44425997173</v>
+        <v>723801.6087856126</v>
       </c>
       <c t="n" r="M46" s="64">
-        <v>427557.81673083093</v>
+        <v>723919.576159444</v>
       </c>
       <c t="n" r="N46" s="64">
-        <v>445653.44328732614</v>
+        <v>727063.5431130177</v>
       </c>
       <c t="n" r="O46" s="64">
-        <v>430798.9009560379</v>
+        <v>705879.6372705561</v>
       </c>
       <c t="n" r="P46" s="64">
-        <v>440055.03672793397</v>
+        <v>711313.2853928951</v>
       </c>
       <c t="n" r="Q46" s="64">
-        <v>442754.1855268198</v>
+        <v>707930.9701271877</v>
       </c>
       <c t="n" r="R46" s="64">
-        <v>441930.15497376514</v>
+        <v>699595.391150108</v>
       </c>
       <c t="n" r="S46" s="64">
-        <v>459566.42720271164</v>
+        <v>692195.4770792079</v>
       </c>
       <c t="n" r="T46" s="64">
-        <v>462932.5075099925</v>
+        <v>680031.3478417546</v>
       </c>
       <c t="n" r="U46" s="64">
-        <v>450718.4675772589</v>
+        <v>658727.3056771085</v>
       </c>
       <c t="n" r="V46" s="64">
-        <v>390273.1916437513</v>
+        <v>601900.3135139762</v>
       </c>
       <c t="n" r="W46" s="64">
-        <v>407103.47214332124</v>
+        <v>615724.5868550019</v>
       </c>
       <c t="n" r="X46" s="64">
-        <v>428358.8064920077</v>
+        <v>570233.5164931704</v>
       </c>
       <c t="n" r="Y46" s="64">
-        <v>417374.44654746033</v>
+        <v>586328.4828371988</v>
       </c>
       <c t="n" r="Z46" s="64">
-        <v>408987.8823865379</v>
+        <v>572040.6618381899</v>
       </c>
       <c t="n" r="AA46" s="64">
-        <v>362562.3435831411</v>
+        <v>531430.1615403543</v>
       </c>
       <c t="n" r="AB46" s="64">
-        <v>319107.6011569923</v>
+        <v>513880.1932169187</v>
       </c>
       <c t="n" r="AC46" s="64">
-        <v>337413.3941197296</v>
+        <v>488309.30658586626</v>
       </c>
       <c t="n" r="AD46" s="64">
-        <v>322998.68517685524</v>
+        <v>476874.2148652759</v>
       </c>
       <c t="n" r="AE46" s="64">
-        <v>339500.29502356536</v>
+        <v>467869.9513153275</v>
       </c>
       <c t="n" r="AF46" s="64">
-        <v>333834.96901844203</v>
+        <v>453233.64626780397</v>
       </c>
       <c t="n" r="AG46" s="64">
-        <v>317695.59677401494</v>
-      </c>
-      <c r="AH46" s="60">
-        <v>-0.6628829611975187</v>
+        <v>408965.07661368017</v>
+      </c>
+      <c t="n" r="AH46" s="64">
+        <v>429489.4710985237</v>
+      </c>
+      <c r="AI46" s="60">
+        <v>-0.4673341316462784</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland</t>
+          <t xml:space="preserve">United States of America</t>
         </is>
       </c>
       <c t="n" r="B47" s="64">
-        <v>797015.7663596321</v>
+        <v>6487330.948285853</v>
       </c>
       <c t="n" r="C47" s="64">
-        <v>797015.7663596321</v>
+        <v>6487330.948285853</v>
       </c>
       <c t="n" r="D47" s="64">
-        <v>805857.2139716067</v>
+        <v>6418406.1902886145</v>
       </c>
       <c t="n" r="E47" s="64">
-        <v>785188.9860939084</v>
+        <v>6534880.126584912</v>
       </c>
       <c t="n" r="F47" s="64">
-        <v>765797.9251287348</v>
+        <v>6639525.504805794</v>
       </c>
       <c t="n" r="G47" s="64">
-        <v>754948.2400158895</v>
+        <v>6745166.790661121</v>
       </c>
       <c t="n" r="H47" s="64">
-        <v>748697.9052915244</v>
+        <v>6821933.717562939</v>
       </c>
       <c t="n" r="I47" s="64">
-        <v>769570.0706806167</v>
+        <v>7023529.628665775</v>
       </c>
       <c t="n" r="J47" s="64">
-        <v>745547.678693419</v>
+        <v>7079206.863335176</v>
       </c>
       <c t="n" r="K47" s="64">
-        <v>744404.8449035783</v>
+        <v>7124684.268126308</v>
       </c>
       <c t="n" r="L47" s="64">
-        <v>714329.7131315904</v>
+        <v>7169885.427989543</v>
       </c>
       <c t="n" r="M47" s="64">
-        <v>714300.9023679728</v>
+        <v>7369162.9717715625</v>
       </c>
       <c t="n" r="N47" s="64">
-        <v>717276.9189926065</v>
+        <v>7253522.3079748005</v>
       </c>
       <c t="n" r="O47" s="64">
-        <v>695757.8473660145</v>
+        <v>7293277.737442325</v>
       </c>
       <c t="n" r="P47" s="64">
-        <v>702304.9280145108</v>
+        <v>7352702.361115053</v>
       </c>
       <c t="n" r="Q47" s="64">
-        <v>698972.1547846887</v>
+        <v>7464364.918375174</v>
       </c>
       <c t="n" r="R47" s="64">
-        <v>691247.9903267438</v>
+        <v>7477358.360841533</v>
       </c>
       <c t="n" r="S47" s="64">
-        <v>684093.4925942954</v>
+        <v>7407921.4952736255</v>
       </c>
       <c t="n" r="T47" s="64">
-        <v>672431.5082852888</v>
+        <v>7511447.957796066</v>
       </c>
       <c t="n" r="U47" s="64">
-        <v>651364.7420883771</v>
+        <v>7294541.719409942</v>
       </c>
       <c t="n" r="V47" s="64">
-        <v>595065.6470494325</v>
+        <v>6840741.542040688</v>
       </c>
       <c t="n" r="W47" s="64">
-        <v>609398.6016731112</v>
+        <v>7058197.908345731</v>
       </c>
       <c t="n" r="X47" s="64">
-        <v>564263.3973130424</v>
+        <v>6907203.235707216</v>
       </c>
       <c t="n" r="Y47" s="64">
-        <v>580528.0332527069</v>
+        <v>6670533.532336505</v>
       </c>
       <c t="n" r="Z47" s="64">
-        <v>567038.73562689</v>
+        <v>6841661.092986665</v>
       </c>
       <c t="n" r="AA47" s="64">
-        <v>526914.7856199668</v>
+        <v>6898525.59577771</v>
       </c>
       <c t="n" r="AB47" s="64">
-        <v>509266.1304898343</v>
+        <v>6737358.64379383</v>
       </c>
       <c t="n" r="AC47" s="64">
-        <v>484244.95242444996</v>
+        <v>6578432.361728993</v>
       </c>
       <c t="n" r="AD47" s="64">
-        <v>473113.187044508</v>
+        <v>6561824.439819123</v>
       </c>
       <c t="n" r="AE47" s="64">
-        <v>464307.2068629658</v>
+        <v>6754831.6478202315</v>
       </c>
       <c t="n" r="AF47" s="64">
-        <v>448389.6383580961</v>
+        <v>6617916.875843015</v>
       </c>
       <c t="n" r="AG47" s="64">
-        <v>405754.8833709018</v>
-      </c>
-      <c r="AH47" s="60">
-        <v>-0.4909073314519405</v>
-      </c>
-    </row>
-    <row r="48">
-      <c t="inlineStr" r="A48">
-        <is>
-          <t xml:space="preserve">United States of America</t>
-        </is>
-      </c>
-      <c t="n" r="B48" s="64">
-        <v>6453450.223251879</v>
-      </c>
-      <c t="n" r="C48" s="64">
-        <v>6453450.223251879</v>
-      </c>
-      <c t="n" r="D48" s="64">
-        <v>6382938.92165308</v>
-      </c>
-      <c t="n" r="E48" s="64">
-        <v>6497290.0791826695</v>
-      </c>
-      <c t="n" r="F48" s="64">
-        <v>6613395.75015369</v>
-      </c>
-      <c t="n" r="G48" s="64">
-        <v>6700778.175616319</v>
-      </c>
-      <c t="n" r="H48" s="64">
-        <v>6785363.614169088</v>
-      </c>
-      <c t="n" r="I48" s="64">
-        <v>6990925.58040964</v>
-      </c>
-      <c t="n" r="J48" s="64">
-        <v>7046213.088232353</v>
-      </c>
-      <c t="n" r="K48" s="64">
-        <v>7094833.388774933</v>
-      </c>
-      <c t="n" r="L48" s="64">
-        <v>7138140.713042953</v>
-      </c>
-      <c t="n" r="M48" s="64">
-        <v>7327593.209167173</v>
-      </c>
-      <c t="n" r="N48" s="64">
-        <v>7219162.974129113</v>
-      </c>
-      <c t="n" r="O48" s="64">
-        <v>7259157.14937395</v>
-      </c>
-      <c t="n" r="P48" s="64">
-        <v>7313828.08195993</v>
-      </c>
-      <c t="n" r="Q48" s="64">
-        <v>7428447.644365949</v>
-      </c>
-      <c t="n" r="R48" s="64">
-        <v>7434827.939263331</v>
-      </c>
-      <c t="n" r="S48" s="64">
-        <v>7360801.267120774</v>
-      </c>
-      <c t="n" r="T48" s="64">
-        <v>7463786.406987221</v>
-      </c>
-      <c t="n" r="U48" s="64">
-        <v>7240643.547892328</v>
-      </c>
-      <c t="n" r="V48" s="64">
-        <v>6787264.72641999</v>
-      </c>
-      <c t="n" r="W48" s="64">
-        <v>7007442.261464367</v>
-      </c>
-      <c t="n" r="X48" s="64">
-        <v>6845087.119308752</v>
-      </c>
-      <c t="n" r="Y48" s="64">
-        <v>6606523.764278148</v>
-      </c>
-      <c t="n" r="Z48" s="64">
-        <v>6784494.216963544</v>
-      </c>
-      <c t="n" r="AA48" s="64">
-        <v>6843355.821938592</v>
-      </c>
-      <c t="n" r="AB48" s="64">
-        <v>6689006.126535685</v>
-      </c>
-      <c t="n" r="AC48" s="64">
-        <v>6537871.031700011</v>
-      </c>
-      <c t="n" r="AD48" s="64">
-        <v>6500975.385746506</v>
-      </c>
-      <c t="n" r="AE48" s="64">
-        <v>6687512.573015235</v>
-      </c>
-      <c t="n" r="AF48" s="64">
-        <v>6571725.746165905</v>
-      </c>
-      <c t="n" r="AG48" s="64">
-        <v>5981354.372479599</v>
-      </c>
-      <c r="AH48" s="60">
-        <v>-0.07315402373002146</v>
-      </c>
-    </row>
-    <row r="49"/>
+        <v>6025973.612736474</v>
+      </c>
+      <c t="n" r="AH47" s="64">
+        <v>6340228.292308889</v>
+      </c>
+      <c r="AI47" s="60">
+        <v>-0.022675374071340106</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">Source: UNFCCC GHG Data Interface</t>
+        </is>
+      </c>
+    </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Source: UNFCCC GHG Data Interface</t>
+          <t xml:space="preserve">Note 1: The reporting and review requirements for GHG inventories are different for Annex I and non-Annex I Parties. The definition format of data for emissions/removals from the forestry sector is different for Annex I and non-Annex I Parties.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Note 1: The reporting and review requirements for GHG inventories are different for Annex I and non-Annex I Parties. The definition format of data for emissions/removals from the forestry sector is different for Annex I and non-Annex I Parties.</t>
+          <t xml:space="preserve">Note 2: Base year data in the data interface relate to the base year under the Climate Change Convention (UNFCCC).  The base year under the Convention is defined slightly different than the base year under the Kyoto Protocol.  An exception is made for European Union (KP) whereby the base year under the Kyoto Protocol is displayed.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Note 2: Base year data in the data interface relate to the base year under the Climate Change Convention (UNFCCC).  The base year under the Convention is defined slightly different than the base year under the Kyoto Protocol.  An exception is made for European Union (KP) whereby the base year under the Kyoto Protocol is displayed.</t>
+          <t xml:space="preserve">Note 3: – means "No data available"</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Note 3: – means "No data available"</t>
+          <t xml:space="preserve">Note 4: Data displayed on the data interface are "as received" from Parties. The publication of Party submissions on this website does not imply the expression of any opinion whatsoever on the part of the UNFCCC or the Secretariat of the United Nations concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries as may be referred to in any of the submissions.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Note 4: Data displayed on the data interface are "as received" from Parties. The publication of Party submissions on this website does not imply the expression of any opinion whatsoever on the part of the UNFCCC or the Secretariat of the United Nations concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries as may be referred to in any of the submissions.</t>
+          <t xml:space="preserve">Note 5: Data expressed in CO2 equivalent are in accordance with the global warming potential values (GWPs) used by Parties in their submission. Please refer to the “Notes on GHG data” available on the UNFCCC website for additional information.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Report produced on Monday, 5 December 2022 21:27:16 CET</t>
+          <t xml:space="preserve">Note 6: Data displayed for Australia reflects their GHG Inventory submission on 16 September 2022. The latest data submitted by Australia in 2023, including the CRT and NIR submission made under the Paris Agreement, are available on the UNFCCC website.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">Report produced on Thursday, 2 November 2023 20:53:26 CET</t>
         </is>
       </c>
     </row>
